--- a/rezultati/TAB_dDs_w(m,n,i,p) multiplier: 1.xlsx
+++ b/rezultati/TAB_dDs_w(m,n,i,p) multiplier: 1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="2">
   <si>
     <t>cas_ure</t>
   </si>
@@ -64,7 +64,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B1154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,6 +482,8830 @@
         <v>0.51040965191890408</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0.50913807697038704</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>8.5</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.50965111596979573</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0.51307919550154968</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0.51691604177773787</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>9</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0.51602231935611387</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0.5156199545940946</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0.51940436244930655</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>9.5</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0.52179049425619817</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0.52583512301265778</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0.52903694861353368</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>10</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0.5285901647347766</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>10.166666666666666</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0.52105531654172677</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0.51752807866779027</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>10.5</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0.51762890313277543</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0.51971090546135002</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>10.833333333333334</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0.52229230153904049</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>11</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0.51786879767741323</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>11.166666666666666</v>
+      </c>
+      <c r="B69" s="0">
+        <v>0.51338128841453534</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0.51235076186901829</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>11.5</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0.51299611552455315</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0.51662976398318339</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>11.833333333333334</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0.52169429087283758</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>12</v>
+      </c>
+      <c r="B74" s="0">
+        <v>0.52146791305028417</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>12.166666666666666</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0.5182293870621395</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0.51640863565350059</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>12.5</v>
+      </c>
+      <c r="B77" s="0">
+        <v>0.51763355985274606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="B78" s="0">
+        <v>0.52006357615161558</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>12.833333333333334</v>
+      </c>
+      <c r="B79" s="0">
+        <v>0.52197040467474165</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>13</v>
+      </c>
+      <c r="B80" s="0">
+        <v>0.51886210020749091</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>13.166666666666666</v>
+      </c>
+      <c r="B81" s="0">
+        <v>0.51530649495260838</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="B82" s="0">
+        <v>0.51348167442979487</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>13.5</v>
+      </c>
+      <c r="B83" s="0">
+        <v>0.51454953249253266</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0.51562843180770035</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>13.833333333333334</v>
+      </c>
+      <c r="B85" s="0">
+        <v>0.51854412406334205</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>14</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0.51449545543832353</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>14.166666666666666</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0.51174648735521478</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0.51167845275740476</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>14.5</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0.51287406825358872</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0.51403586379959121</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>14.833333333333334</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0.51537382066916892</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>15</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0.51202046084635577</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>15.166666666666666</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0.50968554694447732</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0.51025309349217018</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>15.5</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0.51478328075472757</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0.5188385631370992</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>15.833333333333334</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0.52155059582870578</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>16</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0.51793248792924196</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>16.166666666666668</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0.51374876298168271</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>16.333333333333332</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0.51415508102107843</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>16.5</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0.51675126244416858</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="B102" s="0">
+        <v>0.51987926749628577</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="B103" s="0">
+        <v>0.52181385381958278</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>17</v>
+      </c>
+      <c r="B104" s="0">
+        <v>0.51776132421233534</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="B105" s="0">
+        <v>0.51484819650699665</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="B106" s="0">
+        <v>0.51695454431680843</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>17.5</v>
+      </c>
+      <c r="B107" s="0">
+        <v>0.52263842023766016</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="B108" s="0">
+        <v>0.52650952283483177</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>17.833333333333332</v>
+      </c>
+      <c r="B109" s="0">
+        <v>0.52940084902325613</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>18</v>
+      </c>
+      <c r="B110" s="0">
+        <v>0.52708580044755349</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>18.166666666666668</v>
+      </c>
+      <c r="B111" s="0">
+        <v>0.52299949148320113</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="B112" s="0">
+        <v>0.52659194535488607</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>18.5</v>
+      </c>
+      <c r="B113" s="0">
+        <v>0.52986484579787108</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="B114" s="0">
+        <v>0.53316629353235801</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>18.833333333333332</v>
+      </c>
+      <c r="B115" s="0">
+        <v>0.5355997912968461</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>19</v>
+      </c>
+      <c r="B116" s="0">
+        <v>0.53297996254553026</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>19.166666666666668</v>
+      </c>
+      <c r="B117" s="0">
+        <v>0.52776074401334139</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>19.333333333333332</v>
+      </c>
+      <c r="B118" s="0">
+        <v>0.52527279768683921</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>19.5</v>
+      </c>
+      <c r="B119" s="0">
+        <v>0.53073055521312895</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>19.666666666666668</v>
+      </c>
+      <c r="B120" s="0">
+        <v>0.53523046590279866</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>19.833333333333332</v>
+      </c>
+      <c r="B121" s="0">
+        <v>0.53835370588307696</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>20</v>
+      </c>
+      <c r="B122" s="0">
+        <v>0.53952066898113127</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>20.166666666666668</v>
+      </c>
+      <c r="B123" s="0">
+        <v>0.53924573034065282</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="B124" s="0">
+        <v>0.53745158680890537</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="B125" s="0">
+        <v>0.53821069703457503</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>20.666666666666668</v>
+      </c>
+      <c r="B126" s="0">
+        <v>0.54151940810147881</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>20.833333333333332</v>
+      </c>
+      <c r="B127" s="0">
+        <v>0.5443810175933238</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>21</v>
+      </c>
+      <c r="B128" s="0">
+        <v>0.5415244587829875</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>21.166666666666668</v>
+      </c>
+      <c r="B129" s="0">
+        <v>0.53542354770474077</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>21.333333333333332</v>
+      </c>
+      <c r="B130" s="0">
+        <v>0.53320190659015299</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="B131" s="0">
+        <v>0.53321523883753241</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="B132" s="0">
+        <v>0.53425055475436967</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>21.833333333333332</v>
+      </c>
+      <c r="B133" s="0">
+        <v>0.53557835816886945</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>22</v>
+      </c>
+      <c r="B134" s="0">
+        <v>0.53286141855686164</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>22.166666666666668</v>
+      </c>
+      <c r="B135" s="0">
+        <v>0.52867754407228829</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="B136" s="0">
+        <v>0.52731698131493887</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="B137" s="0">
+        <v>0.52868941790751989</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>22.666666666666668</v>
+      </c>
+      <c r="B138" s="0">
+        <v>0.5304327679523454</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>22.833333333333332</v>
+      </c>
+      <c r="B139" s="0">
+        <v>0.5352255980805718</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>23</v>
+      </c>
+      <c r="B140" s="0">
+        <v>0.53732520873017608</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>23.166666666666668</v>
+      </c>
+      <c r="B141" s="0">
+        <v>0.53522152257918876</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="B142" s="0">
+        <v>0.53292616469516985</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="B143" s="0">
+        <v>0.53392256831154605</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>23.666666666666668</v>
+      </c>
+      <c r="B144" s="0">
+        <v>0.53686446882487504</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>23.833333333333332</v>
+      </c>
+      <c r="B145" s="0">
+        <v>0.53948887872429252</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>24</v>
+      </c>
+      <c r="B146" s="0">
+        <v>0.54161698822066229</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>24.166666666666668</v>
+      </c>
+      <c r="B147" s="0">
+        <v>0.54027621035919826</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>24.333333333333332</v>
+      </c>
+      <c r="B148" s="0">
+        <v>0.53875049315651913</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="B149" s="0">
+        <v>0.5422648086616525</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="B150" s="0">
+        <v>0.54558684648795663</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>24.833333333333332</v>
+      </c>
+      <c r="B151" s="0">
+        <v>0.54793254158660976</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>25</v>
+      </c>
+      <c r="B152" s="0">
+        <v>0.5470844975336856</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>25.166666666666668</v>
+      </c>
+      <c r="B153" s="0">
+        <v>0.54479204942931392</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="B154" s="0">
+        <v>0.54483811985501707</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>25.5</v>
+      </c>
+      <c r="B155" s="0">
+        <v>0.54769456605970124</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>25.666666666666668</v>
+      </c>
+      <c r="B156" s="0">
+        <v>0.55112174045091245</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="B157" s="0">
+        <v>0.55299645655924456</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>26</v>
+      </c>
+      <c r="B158" s="0">
+        <v>0.55373482214327274</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>26.166666666666668</v>
+      </c>
+      <c r="B159" s="0">
+        <v>0.55414322947737571</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="B160" s="0">
+        <v>0.55435944938280679</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>26.5</v>
+      </c>
+      <c r="B161" s="0">
+        <v>0.55441596346886002</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="B162" s="0">
+        <v>0.55432704508418607</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>26.833333333333332</v>
+      </c>
+      <c r="B163" s="0">
+        <v>0.5540968332700762</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>27</v>
+      </c>
+      <c r="B164" s="0">
+        <v>0.55359646332488399</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>27.166666666666668</v>
+      </c>
+      <c r="B165" s="0">
+        <v>0.55283655097346218</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>27.333333333333332</v>
+      </c>
+      <c r="B166" s="0">
+        <v>0.55187569933785885</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>27.5</v>
+      </c>
+      <c r="B167" s="0">
+        <v>0.5507915186577268</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>27.666666666666668</v>
+      </c>
+      <c r="B168" s="0">
+        <v>0.54959496418674436</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>27.833333333333332</v>
+      </c>
+      <c r="B169" s="0">
+        <v>0.54830077749837514</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>28</v>
+      </c>
+      <c r="B170" s="0">
+        <v>0.54692508683631968</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>28.166666666666668</v>
+      </c>
+      <c r="B171" s="0">
+        <v>0.54547662885664383</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>28.333333333333332</v>
+      </c>
+      <c r="B172" s="0">
+        <v>0.54396182294428297</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>28.5</v>
+      </c>
+      <c r="B173" s="0">
+        <v>0.5423902944830058</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="B174" s="0">
+        <v>0.54078319644403883</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="B175" s="0">
+        <v>0.53913799160810116</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>29</v>
+      </c>
+      <c r="B176" s="0">
+        <v>0.53744758864561037</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="B177" s="0">
+        <v>0.53567165694632457</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>29.333333333333332</v>
+      </c>
+      <c r="B178" s="0">
+        <v>0.53392173838210455</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>29.5</v>
+      </c>
+      <c r="B179" s="0">
+        <v>0.53547065169846864</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>29.666666666666668</v>
+      </c>
+      <c r="B180" s="0">
+        <v>0.53860324965700845</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>29.833333333333332</v>
+      </c>
+      <c r="B181" s="0">
+        <v>0.54208938595480904</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>30</v>
+      </c>
+      <c r="B182" s="0">
+        <v>0.53854438181976272</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>30.166666666666668</v>
+      </c>
+      <c r="B183" s="0">
+        <v>0.53592271321745466</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>30.333333333333332</v>
+      </c>
+      <c r="B184" s="0">
+        <v>0.53782694266957853</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>30.5</v>
+      </c>
+      <c r="B185" s="0">
+        <v>0.54048088740597522</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>30.666666666666668</v>
+      </c>
+      <c r="B186" s="0">
+        <v>0.54336300693739614</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="B187" s="0">
+        <v>0.54609504254194641</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>31</v>
+      </c>
+      <c r="B188" s="0">
+        <v>0.54412949291869794</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>31.166666666666668</v>
+      </c>
+      <c r="B189" s="0">
+        <v>0.53924446883375476</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>31.333333333333332</v>
+      </c>
+      <c r="B190" s="0">
+        <v>0.53715506499683685</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>31.5</v>
+      </c>
+      <c r="B191" s="0">
+        <v>0.53836737844668092</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>31.666666666666668</v>
+      </c>
+      <c r="B192" s="0">
+        <v>0.54101323768053855</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>31.833333333333332</v>
+      </c>
+      <c r="B193" s="0">
+        <v>0.54420723573334739</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>32</v>
+      </c>
+      <c r="B194" s="0">
+        <v>0.54246013365023738</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>32.166666666666664</v>
+      </c>
+      <c r="B195" s="0">
+        <v>0.53868002379718594</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>32.333333333333336</v>
+      </c>
+      <c r="B196" s="0">
+        <v>0.53660247334793887</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="B197" s="0">
+        <v>0.53758596876831877</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>32.666666666666664</v>
+      </c>
+      <c r="B198" s="0">
+        <v>0.54041849277424259</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>32.833333333333336</v>
+      </c>
+      <c r="B199" s="0">
+        <v>0.54344051008919592</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>33</v>
+      </c>
+      <c r="B200" s="0">
+        <v>0.54015055294724901</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>33.166666666666664</v>
+      </c>
+      <c r="B201" s="0">
+        <v>0.53534723216304292</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="B202" s="0">
+        <v>0.5343798813808881</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="B203" s="0">
+        <v>0.53522004292859859</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>33.666666666666664</v>
+      </c>
+      <c r="B204" s="0">
+        <v>0.53695680096299203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>33.833333333333336</v>
+      </c>
+      <c r="B205" s="0">
+        <v>0.53916223690894982</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>34</v>
+      </c>
+      <c r="B206" s="0">
+        <v>0.53793653006204878</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>34.166666666666664</v>
+      </c>
+      <c r="B207" s="0">
+        <v>0.53685116435640168</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>34.333333333333336</v>
+      </c>
+      <c r="B208" s="0">
+        <v>0.53850891272119494</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="B209" s="0">
+        <v>0.54228279600184082</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>34.666666666666664</v>
+      </c>
+      <c r="B210" s="0">
+        <v>0.54523381820214423</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>34.833333333333336</v>
+      </c>
+      <c r="B211" s="0">
+        <v>0.54882426289114361</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>35</v>
+      </c>
+      <c r="B212" s="0">
+        <v>0.54585003895652851</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>35.166666666666664</v>
+      </c>
+      <c r="B213" s="0">
+        <v>0.54094895864984327</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>35.333333333333336</v>
+      </c>
+      <c r="B214" s="0">
+        <v>0.53882381556179348</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>35.5</v>
+      </c>
+      <c r="B215" s="0">
+        <v>0.53929173747349757</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>35.666666666666664</v>
+      </c>
+      <c r="B216" s="0">
+        <v>0.54151249713778227</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>35.833333333333336</v>
+      </c>
+      <c r="B217" s="0">
+        <v>0.54366975085827618</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>36</v>
+      </c>
+      <c r="B218" s="0">
+        <v>0.54035536108219151</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>36.166666666666664</v>
+      </c>
+      <c r="B219" s="0">
+        <v>0.53597021451683957</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>36.333333333333336</v>
+      </c>
+      <c r="B220" s="0">
+        <v>0.53452907142306827</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>36.5</v>
+      </c>
+      <c r="B221" s="0">
+        <v>0.53568934134238366</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="B222" s="0">
+        <v>0.53645156523318816</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>36.833333333333336</v>
+      </c>
+      <c r="B223" s="0">
+        <v>0.53844901636565668</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>37</v>
+      </c>
+      <c r="B224" s="0">
+        <v>0.53564719386499993</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>37.166666666666664</v>
+      </c>
+      <c r="B225" s="0">
+        <v>0.5327212347235819</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="B226" s="0">
+        <v>0.5326550642614899</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="B227" s="0">
+        <v>0.53496386832753651</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>37.666666666666664</v>
+      </c>
+      <c r="B228" s="0">
+        <v>0.53715611648748196</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>37.833333333333336</v>
+      </c>
+      <c r="B229" s="0">
+        <v>0.53947219126915347</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>38</v>
+      </c>
+      <c r="B230" s="0">
+        <v>0.53671244804799134</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>38.166666666666664</v>
+      </c>
+      <c r="B231" s="0">
+        <v>0.53310581643375876</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>38.333333333333336</v>
+      </c>
+      <c r="B232" s="0">
+        <v>0.53407630216801239</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>38.5</v>
+      </c>
+      <c r="B233" s="0">
+        <v>0.53682784443179943</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="B234" s="0">
+        <v>0.54110680877882156</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>38.833333333333336</v>
+      </c>
+      <c r="B235" s="0">
+        <v>0.5443821809603</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>39</v>
+      </c>
+      <c r="B236" s="0">
+        <v>0.54082806251627147</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="B237" s="0">
+        <v>0.53622723974769393</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>39.333333333333336</v>
+      </c>
+      <c r="B238" s="0">
+        <v>0.53480819602302399</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>39.5</v>
+      </c>
+      <c r="B239" s="0">
+        <v>0.53587223094592162</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="B240" s="0">
+        <v>0.5383458449594648</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>39.833333333333336</v>
+      </c>
+      <c r="B241" s="0">
+        <v>0.54103084557713199</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>40</v>
+      </c>
+      <c r="B242" s="0">
+        <v>0.53766793647680278</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>40.166666666666664</v>
+      </c>
+      <c r="B243" s="0">
+        <v>0.53380578670619916</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>40.333333333333336</v>
+      </c>
+      <c r="B244" s="0">
+        <v>0.53257114872695699</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>40.5</v>
+      </c>
+      <c r="B245" s="0">
+        <v>0.53357839513866201</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="B246" s="0">
+        <v>0.53589970403021359</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>40.833333333333336</v>
+      </c>
+      <c r="B247" s="0">
+        <v>0.53876887378714911</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>41</v>
+      </c>
+      <c r="B248" s="0">
+        <v>0.53588202954481889</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>41.166666666666664</v>
+      </c>
+      <c r="B249" s="0">
+        <v>0.53263086262207826</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="B250" s="0">
+        <v>0.53144671029119595</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>41.5</v>
+      </c>
+      <c r="B251" s="0">
+        <v>0.53279081695283159</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>41.666666666666664</v>
+      </c>
+      <c r="B252" s="0">
+        <v>0.53555156338505949</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>41.833333333333336</v>
+      </c>
+      <c r="B253" s="0">
+        <v>0.53846035784765423</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>42</v>
+      </c>
+      <c r="B254" s="0">
+        <v>0.53564194529241382</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>42.166666666666664</v>
+      </c>
+      <c r="B255" s="0">
+        <v>0.53154808100303352</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="B256" s="0">
+        <v>0.53091828740576708</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>42.5</v>
+      </c>
+      <c r="B257" s="0">
+        <v>0.53237163926809483</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="B258" s="0">
+        <v>0.53422961979176087</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>42.833333333333336</v>
+      </c>
+      <c r="B259" s="0">
+        <v>0.53634489701190446</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>43</v>
+      </c>
+      <c r="B260" s="0">
+        <v>0.53426888512316717</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>43.166666666666664</v>
+      </c>
+      <c r="B261" s="0">
+        <v>0.53066577419242011</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="B262" s="0">
+        <v>0.53018995741109987</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>43.5</v>
+      </c>
+      <c r="B263" s="0">
+        <v>0.53164818960647509</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>43.666666666666664</v>
+      </c>
+      <c r="B264" s="0">
+        <v>0.53405187309182256</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>43.833333333333336</v>
+      </c>
+      <c r="B265" s="0">
+        <v>0.53633257435001203</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>44</v>
+      </c>
+      <c r="B266" s="0">
+        <v>0.53455765701233826</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="B267" s="0">
+        <v>0.53650808774788794</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>44.333333333333336</v>
+      </c>
+      <c r="B268" s="0">
+        <v>0.53634783800544295</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>44.5</v>
+      </c>
+      <c r="B269" s="0">
+        <v>0.53807351719196372</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>44.666666666666664</v>
+      </c>
+      <c r="B270" s="0">
+        <v>0.54083126154431116</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>44.833333333333336</v>
+      </c>
+      <c r="B271" s="0">
+        <v>0.54410769007847304</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>45</v>
+      </c>
+      <c r="B272" s="0">
+        <v>0.54183302673030054</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>45.166666666666664</v>
+      </c>
+      <c r="B273" s="0">
+        <v>0.53851366091055475</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>45.333333333333336</v>
+      </c>
+      <c r="B274" s="0">
+        <v>0.53888073836351846</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>45.5</v>
+      </c>
+      <c r="B275" s="0">
+        <v>0.54172163704269216</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="B276" s="0">
+        <v>0.54474352475804277</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="B277" s="0">
+        <v>0.54797152510171376</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>46</v>
+      </c>
+      <c r="B278" s="0">
+        <v>0.54555651271970151</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>46.166666666666664</v>
+      </c>
+      <c r="B279" s="0">
+        <v>0.54163910922908254</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="B280" s="0">
+        <v>0.53999195562541025</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>46.5</v>
+      </c>
+      <c r="B281" s="0">
+        <v>0.54094812334713838</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="B282" s="0">
+        <v>0.5429416445676013</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>46.833333333333336</v>
+      </c>
+      <c r="B283" s="0">
+        <v>0.54586326898763138</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>47</v>
+      </c>
+      <c r="B284" s="0">
+        <v>0.54314909868758166</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>47.166666666666664</v>
+      </c>
+      <c r="B285" s="0">
+        <v>0.53881085609125756</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="B286" s="0">
+        <v>0.53698533669116943</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>47.5</v>
+      </c>
+      <c r="B287" s="0">
+        <v>0.53810634158498572</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>47.666666666666664</v>
+      </c>
+      <c r="B288" s="0">
+        <v>0.54036907722445482</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>47.833333333333336</v>
+      </c>
+      <c r="B289" s="0">
+        <v>0.54310792398558838</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>48</v>
+      </c>
+      <c r="B290" s="0">
+        <v>0.54023030708946707</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>48.166666666666664</v>
+      </c>
+      <c r="B291" s="0">
+        <v>0.53626805200100602</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>48.333333333333336</v>
+      </c>
+      <c r="B292" s="0">
+        <v>0.53528112897903912</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>48.5</v>
+      </c>
+      <c r="B293" s="0">
+        <v>0.53671637103302528</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>48.666666666666664</v>
+      </c>
+      <c r="B294" s="0">
+        <v>0.53918649519612061</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="B295" s="0">
+        <v>0.54184726753713153</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>49</v>
+      </c>
+      <c r="B296" s="0">
+        <v>0.539429169707348</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>49.166666666666664</v>
+      </c>
+      <c r="B297" s="0">
+        <v>0.53698072155136234</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>49.333333333333336</v>
+      </c>
+      <c r="B298" s="0">
+        <v>0.54170706457752804</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>49.5</v>
+      </c>
+      <c r="B299" s="0">
+        <v>0.54794321046390815</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>49.666666666666664</v>
+      </c>
+      <c r="B300" s="0">
+        <v>0.55258849126629872</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>49.833333333333336</v>
+      </c>
+      <c r="B301" s="0">
+        <v>0.55576813793046831</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>50</v>
+      </c>
+      <c r="B302" s="0">
+        <v>0.55610593638626216</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>50.166666666666664</v>
+      </c>
+      <c r="B303" s="0">
+        <v>0.55234051022440578</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>50.333333333333336</v>
+      </c>
+      <c r="B304" s="0">
+        <v>0.55017603634912304</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>50.5</v>
+      </c>
+      <c r="B305" s="0">
+        <v>0.55192419567785211</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="B306" s="0">
+        <v>0.55499006878108159</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>50.833333333333336</v>
+      </c>
+      <c r="B307" s="0">
+        <v>0.55774145867160352</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>51</v>
+      </c>
+      <c r="B308" s="0">
+        <v>0.55452578723509616</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>51.166666666666664</v>
+      </c>
+      <c r="B309" s="0">
+        <v>0.54944049944587103</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>51.333333333333336</v>
+      </c>
+      <c r="B310" s="0">
+        <v>0.54847349524146238</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>51.5</v>
+      </c>
+      <c r="B311" s="0">
+        <v>0.54870993922008626</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>51.666666666666664</v>
+      </c>
+      <c r="B312" s="0">
+        <v>0.55040431020487324</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>51.833333333333336</v>
+      </c>
+      <c r="B313" s="0">
+        <v>0.55334161477913169</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>52</v>
+      </c>
+      <c r="B314" s="0">
+        <v>0.55320289114143895</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>52.166666666666664</v>
+      </c>
+      <c r="B315" s="0">
+        <v>0.55676134309883962</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>52.333333333333336</v>
+      </c>
+      <c r="B316" s="0">
+        <v>0.55949411594406673</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>52.5</v>
+      </c>
+      <c r="B317" s="0">
+        <v>0.56182274586662029</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>52.666666666666664</v>
+      </c>
+      <c r="B318" s="0">
+        <v>0.56458582705766291</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>52.833333333333336</v>
+      </c>
+      <c r="B319" s="0">
+        <v>0.56696709650240396</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>53</v>
+      </c>
+      <c r="B320" s="0">
+        <v>0.56698074674010657</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>53.166666666666664</v>
+      </c>
+      <c r="B321" s="0">
+        <v>0.56279183802554578</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="B322" s="0">
+        <v>0.56000004267058545</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>53.5</v>
+      </c>
+      <c r="B323" s="0">
+        <v>0.56186551405256424</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>53.666666666666664</v>
+      </c>
+      <c r="B324" s="0">
+        <v>0.56476190785198754</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>53.833333333333336</v>
+      </c>
+      <c r="B325" s="0">
+        <v>0.56694515252073741</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>54</v>
+      </c>
+      <c r="B326" s="0">
+        <v>0.56336736692585987</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>54.166666666666664</v>
+      </c>
+      <c r="B327" s="0">
+        <v>0.55790362606133137</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>54.333333333333336</v>
+      </c>
+      <c r="B328" s="0">
+        <v>0.55589039185716871</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>54.5</v>
+      </c>
+      <c r="B329" s="0">
+        <v>0.55693406896576991</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>54.666666666666664</v>
+      </c>
+      <c r="B330" s="0">
+        <v>0.55985307021368025</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>54.833333333333336</v>
+      </c>
+      <c r="B331" s="0">
+        <v>0.56281708757749049</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>55</v>
+      </c>
+      <c r="B332" s="0">
+        <v>0.56015227833792536</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>55.166666666666664</v>
+      </c>
+      <c r="B333" s="0">
+        <v>0.55512322649155965</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>55.333333333333336</v>
+      </c>
+      <c r="B334" s="0">
+        <v>0.55299853498158969</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>55.5</v>
+      </c>
+      <c r="B335" s="0">
+        <v>0.55403438407387706</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>55.666666666666664</v>
+      </c>
+      <c r="B336" s="0">
+        <v>0.5568038955475354</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>55.833333333333336</v>
+      </c>
+      <c r="B337" s="0">
+        <v>0.55974595927908499</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>56</v>
+      </c>
+      <c r="B338" s="0">
+        <v>0.55741214979953246</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>56.166666666666664</v>
+      </c>
+      <c r="B339" s="0">
+        <v>0.55251425562405054</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>56.333333333333336</v>
+      </c>
+      <c r="B340" s="0">
+        <v>0.55053359953315417</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>56.5</v>
+      </c>
+      <c r="B341" s="0">
+        <v>0.55166078257577833</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="B342" s="0">
+        <v>0.55423470895883398</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>56.833333333333336</v>
+      </c>
+      <c r="B343" s="0">
+        <v>0.55723005978901497</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>57</v>
+      </c>
+      <c r="B344" s="0">
+        <v>0.55502078814996569</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>57.166666666666664</v>
+      </c>
+      <c r="B345" s="0">
+        <v>0.55045986394870727</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>57.333333333333336</v>
+      </c>
+      <c r="B346" s="0">
+        <v>0.55057359845504739</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>57.5</v>
+      </c>
+      <c r="B347" s="0">
+        <v>0.55391256197975936</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="B348" s="0">
+        <v>0.55761381127221466</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>57.833333333333336</v>
+      </c>
+      <c r="B349" s="0">
+        <v>0.56103202804344388</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>58</v>
+      </c>
+      <c r="B350" s="0">
+        <v>0.5589767778396193</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>58.166666666666664</v>
+      </c>
+      <c r="B351" s="0">
+        <v>0.55534089516134333</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="B352" s="0">
+        <v>0.55742717693813726</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>58.5</v>
+      </c>
+      <c r="B353" s="0">
+        <v>0.56176407644321147</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="B354" s="0">
+        <v>0.56423240206831804</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>58.833333333333336</v>
+      </c>
+      <c r="B355" s="0">
+        <v>0.56666913969493871</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>59</v>
+      </c>
+      <c r="B356" s="0">
+        <v>0.56473578671729263</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="B357" s="0">
+        <v>0.55977968727180394</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="B358" s="0">
+        <v>0.55744468059922403</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>59.5</v>
+      </c>
+      <c r="B359" s="0">
+        <v>0.55784160249621107</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>59.666666666666664</v>
+      </c>
+      <c r="B360" s="0">
+        <v>0.5602376273821581</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>59.833333333333336</v>
+      </c>
+      <c r="B361" s="0">
+        <v>0.5628999799768889</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>60</v>
+      </c>
+      <c r="B362" s="0">
+        <v>0.5608633717161885</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>60.166666666666664</v>
+      </c>
+      <c r="B363" s="0">
+        <v>0.55573059295634375</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>60.333333333333336</v>
+      </c>
+      <c r="B364" s="0">
+        <v>0.55346728537494561</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>60.5</v>
+      </c>
+      <c r="B365" s="0">
+        <v>0.55458443105888378</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>60.666666666666664</v>
+      </c>
+      <c r="B366" s="0">
+        <v>0.55703558232532302</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>60.833333333333336</v>
+      </c>
+      <c r="B367" s="0">
+        <v>0.55964131998139477</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>61</v>
+      </c>
+      <c r="B368" s="0">
+        <v>0.55848762068273206</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>61.166666666666664</v>
+      </c>
+      <c r="B369" s="0">
+        <v>0.55450413479152205</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>61.333333333333336</v>
+      </c>
+      <c r="B370" s="0">
+        <v>0.55271015273243263</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>61.5</v>
+      </c>
+      <c r="B371" s="0">
+        <v>0.5539687531163906</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>61.666666666666664</v>
+      </c>
+      <c r="B372" s="0">
+        <v>0.55652100503256286</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>61.833333333333336</v>
+      </c>
+      <c r="B373" s="0">
+        <v>0.55931130550735608</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>62</v>
+      </c>
+      <c r="B374" s="0">
+        <v>0.55753209835876583</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>62.166666666666664</v>
+      </c>
+      <c r="B375" s="0">
+        <v>0.55300090513111821</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>62.333333333333336</v>
+      </c>
+      <c r="B376" s="0">
+        <v>0.55511485644652325</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>62.5</v>
+      </c>
+      <c r="B377" s="0">
+        <v>0.55886691128887866</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>62.666666666666664</v>
+      </c>
+      <c r="B378" s="0">
+        <v>0.56268382628615255</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>62.833333333333336</v>
+      </c>
+      <c r="B379" s="0">
+        <v>0.56665948344393879</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>63</v>
+      </c>
+      <c r="B380" s="0">
+        <v>0.565213777161655</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>63.166666666666664</v>
+      </c>
+      <c r="B381" s="0">
+        <v>0.55950300411519549</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="B382" s="0">
+        <v>0.55699424543424214</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>63.5</v>
+      </c>
+      <c r="B383" s="0">
+        <v>0.55727761287281263</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>63.666666666666664</v>
+      </c>
+      <c r="B384" s="0">
+        <v>0.55915854450633729</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>63.833333333333336</v>
+      </c>
+      <c r="B385" s="0">
+        <v>0.56154651568375991</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>64</v>
+      </c>
+      <c r="B386" s="0">
+        <v>0.55945166086930232</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>64.166666666666672</v>
+      </c>
+      <c r="B387" s="0">
+        <v>0.55535707278112034</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>64.333333333333329</v>
+      </c>
+      <c r="B388" s="0">
+        <v>0.55373649093932909</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>64.5</v>
+      </c>
+      <c r="B389" s="0">
+        <v>0.5547112683988662</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>64.666666666666672</v>
+      </c>
+      <c r="B390" s="0">
+        <v>0.55708380402703039</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>64.833333333333329</v>
+      </c>
+      <c r="B391" s="0">
+        <v>0.55959655165211142</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>65</v>
+      </c>
+      <c r="B392" s="0">
+        <v>0.55738742671392261</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>65.166666666666672</v>
+      </c>
+      <c r="B393" s="0">
+        <v>0.55225344782301489</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="B394" s="0">
+        <v>0.55139945004082902</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>65.5</v>
+      </c>
+      <c r="B395" s="0">
+        <v>0.55267547807165318</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>65.666666666666672</v>
+      </c>
+      <c r="B396" s="0">
+        <v>0.55511269511181505</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>65.833333333333329</v>
+      </c>
+      <c r="B397" s="0">
+        <v>0.55806855664129884</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>66</v>
+      </c>
+      <c r="B398" s="0">
+        <v>0.55648246525043943</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>66.166666666666672</v>
+      </c>
+      <c r="B399" s="0">
+        <v>0.55247722437906033</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>66.333333333333329</v>
+      </c>
+      <c r="B400" s="0">
+        <v>0.55698611213734273</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>66.5</v>
+      </c>
+      <c r="B401" s="0">
+        <v>0.56131157570162482</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>66.666666666666672</v>
+      </c>
+      <c r="B402" s="0">
+        <v>0.56523822927904355</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>66.833333333333329</v>
+      </c>
+      <c r="B403" s="0">
+        <v>0.56818847512489767</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>67</v>
+      </c>
+      <c r="B404" s="0">
+        <v>0.56853889186466056</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>67.166666666666672</v>
+      </c>
+      <c r="B405" s="0">
+        <v>0.56353535470098071</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>67.333333333333329</v>
+      </c>
+      <c r="B406" s="0">
+        <v>0.56432803933746689</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>67.5</v>
+      </c>
+      <c r="B407" s="0">
+        <v>0.56897877228025773</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>67.666666666666672</v>
+      </c>
+      <c r="B408" s="0">
+        <v>0.57204985529917729</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>67.833333333333329</v>
+      </c>
+      <c r="B409" s="0">
+        <v>0.5746026342096765</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>68</v>
+      </c>
+      <c r="B410" s="0">
+        <v>0.57348127213077693</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>68.166666666666672</v>
+      </c>
+      <c r="B411" s="0">
+        <v>0.56928325983990513</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>68.333333333333329</v>
+      </c>
+      <c r="B412" s="0">
+        <v>0.56720566995497279</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>68.5</v>
+      </c>
+      <c r="B413" s="0">
+        <v>0.56819333124888494</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>68.666666666666672</v>
+      </c>
+      <c r="B414" s="0">
+        <v>0.57068649496738855</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>68.833333333333329</v>
+      </c>
+      <c r="B415" s="0">
+        <v>0.57367646643955361</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>69</v>
+      </c>
+      <c r="B416" s="0">
+        <v>0.57269627973438808</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>69.166666666666672</v>
+      </c>
+      <c r="B417" s="0">
+        <v>0.56761593585914638</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>69.333333333333329</v>
+      </c>
+      <c r="B418" s="0">
+        <v>0.56499096442010266</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>69.5</v>
+      </c>
+      <c r="B419" s="0">
+        <v>0.56566972574284768</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>69.666666666666672</v>
+      </c>
+      <c r="B420" s="0">
+        <v>0.56792388285711326</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>69.833333333333329</v>
+      </c>
+      <c r="B421" s="0">
+        <v>0.57084583790895771</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>70</v>
+      </c>
+      <c r="B422" s="0">
+        <v>0.56914853534185861</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>70.166666666666672</v>
+      </c>
+      <c r="B423" s="0">
+        <v>0.56408138020070742</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>70.333333333333329</v>
+      </c>
+      <c r="B424" s="0">
+        <v>0.5628352536546225</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>70.5</v>
+      </c>
+      <c r="B425" s="0">
+        <v>0.5636175179076246</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>70.666666666666672</v>
+      </c>
+      <c r="B426" s="0">
+        <v>0.56633720421612266</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>70.833333333333329</v>
+      </c>
+      <c r="B427" s="0">
+        <v>0.56845116838206922</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>71</v>
+      </c>
+      <c r="B428" s="0">
+        <v>0.56750727275682189</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>71.166666666666672</v>
+      </c>
+      <c r="B429" s="0">
+        <v>0.5641140992523831</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="B430" s="0">
+        <v>0.56416680963714816</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>71.5</v>
+      </c>
+      <c r="B431" s="0">
+        <v>0.56587071525006538</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>71.666666666666672</v>
+      </c>
+      <c r="B432" s="0">
+        <v>0.56797533507977993</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>71.833333333333329</v>
+      </c>
+      <c r="B433" s="0">
+        <v>0.57073256263847749</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>72</v>
+      </c>
+      <c r="B434" s="0">
+        <v>0.56897587811281192</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>72.166666666666672</v>
+      </c>
+      <c r="B435" s="0">
+        <v>0.56550555654174561</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="B436" s="0">
+        <v>0.56371348175383429</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>72.5</v>
+      </c>
+      <c r="B437" s="0">
+        <v>0.56485028655657654</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>72.666666666666672</v>
+      </c>
+      <c r="B438" s="0">
+        <v>0.56705925651469813</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>72.833333333333329</v>
+      </c>
+      <c r="B439" s="0">
+        <v>0.5694672574246844</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>73</v>
+      </c>
+      <c r="B440" s="0">
+        <v>0.56964027177819565</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>73.166666666666672</v>
+      </c>
+      <c r="B441" s="0">
+        <v>0.56491574485292284</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="B442" s="0">
+        <v>0.56383335995512596</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>73.5</v>
+      </c>
+      <c r="B443" s="0">
+        <v>0.56573397478948662</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>73.666666666666672</v>
+      </c>
+      <c r="B444" s="0">
+        <v>0.56934350787555421</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>73.833333333333329</v>
+      </c>
+      <c r="B445" s="0">
+        <v>0.57267824932413336</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>74</v>
+      </c>
+      <c r="B446" s="0">
+        <v>0.57109031168282742</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>74.166666666666672</v>
+      </c>
+      <c r="B447" s="0">
+        <v>0.56606553939093796</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>74.333333333333329</v>
+      </c>
+      <c r="B448" s="0">
+        <v>0.56427106990576559</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>74.5</v>
+      </c>
+      <c r="B449" s="0">
+        <v>0.56575287049895939</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>74.666666666666672</v>
+      </c>
+      <c r="B450" s="0">
+        <v>0.56827156143336211</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>74.833333333333329</v>
+      </c>
+      <c r="B451" s="0">
+        <v>0.57104581027807755</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>75</v>
+      </c>
+      <c r="B452" s="0">
+        <v>0.56924853490071015</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>75.166666666666672</v>
+      </c>
+      <c r="B453" s="0">
+        <v>0.56495463395719769</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>75.333333333333329</v>
+      </c>
+      <c r="B454" s="0">
+        <v>0.56369669400529065</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>75.5</v>
+      </c>
+      <c r="B455" s="0">
+        <v>0.56457215662835736</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>75.666666666666672</v>
+      </c>
+      <c r="B456" s="0">
+        <v>0.56592783722496065</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>75.833333333333329</v>
+      </c>
+      <c r="B457" s="0">
+        <v>0.56819081044643271</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>76</v>
+      </c>
+      <c r="B458" s="0">
+        <v>0.56705728152341417</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>76.166666666666672</v>
+      </c>
+      <c r="B459" s="0">
+        <v>0.56378899106280467</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>76.333333333333329</v>
+      </c>
+      <c r="B460" s="0">
+        <v>0.56288645266793724</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>76.5</v>
+      </c>
+      <c r="B461" s="0">
+        <v>0.56384494692883258</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>76.666666666666672</v>
+      </c>
+      <c r="B462" s="0">
+        <v>0.56581726103212648</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>76.833333333333329</v>
+      </c>
+      <c r="B463" s="0">
+        <v>0.56813785916593096</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>77</v>
+      </c>
+      <c r="B464" s="0">
+        <v>0.57111854088396419</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0">
+        <v>77.166666666666672</v>
+      </c>
+      <c r="B465" s="0">
+        <v>0.57340282196702941</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0">
+        <v>77.333333333333329</v>
+      </c>
+      <c r="B466" s="0">
+        <v>0.57444858936312382</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0">
+        <v>77.5</v>
+      </c>
+      <c r="B467" s="0">
+        <v>0.57657743178155774</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0">
+        <v>77.666666666666672</v>
+      </c>
+      <c r="B468" s="0">
+        <v>0.57959351404577708</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0">
+        <v>77.833333333333329</v>
+      </c>
+      <c r="B469" s="0">
+        <v>0.58254267869984777</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0">
+        <v>78</v>
+      </c>
+      <c r="B470" s="0">
+        <v>0.58121297065959443</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0">
+        <v>78.166666666666672</v>
+      </c>
+      <c r="B471" s="0">
+        <v>0.57563081882972422</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0">
+        <v>78.333333333333329</v>
+      </c>
+      <c r="B472" s="0">
+        <v>0.57304517154686863</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0">
+        <v>78.5</v>
+      </c>
+      <c r="B473" s="0">
+        <v>0.57431499650046714</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0">
+        <v>78.666666666666672</v>
+      </c>
+      <c r="B474" s="0">
+        <v>0.57704842809081736</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0">
+        <v>78.833333333333329</v>
+      </c>
+      <c r="B475" s="0">
+        <v>0.58007113694703094</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0">
+        <v>79</v>
+      </c>
+      <c r="B476" s="0">
+        <v>0.58193120809892518</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0">
+        <v>79.166666666666672</v>
+      </c>
+      <c r="B477" s="0">
+        <v>0.58323460194988175</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0">
+        <v>79.333333333333329</v>
+      </c>
+      <c r="B478" s="0">
+        <v>0.58431435607403359</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0">
+        <v>79.5</v>
+      </c>
+      <c r="B479" s="0">
+        <v>0.58529234986628276</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0">
+        <v>79.666666666666672</v>
+      </c>
+      <c r="B480" s="0">
+        <v>0.58617589308893225</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0">
+        <v>79.833333333333329</v>
+      </c>
+      <c r="B481" s="0">
+        <v>0.586985674116004</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0">
+        <v>80</v>
+      </c>
+      <c r="B482" s="0">
+        <v>0.58774075633659939</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0">
+        <v>80.166666666666672</v>
+      </c>
+      <c r="B483" s="0">
+        <v>0.58844736006161624</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0">
+        <v>80.333333333333329</v>
+      </c>
+      <c r="B484" s="0">
+        <v>0.58911908209789321</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0">
+        <v>80.5</v>
+      </c>
+      <c r="B485" s="0">
+        <v>0.5897533440582815</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0">
+        <v>80.666666666666672</v>
+      </c>
+      <c r="B486" s="0">
+        <v>0.59035617436964272</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0">
+        <v>80.833333333333329</v>
+      </c>
+      <c r="B487" s="0">
+        <v>0.59093126184881251</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0">
+        <v>81</v>
+      </c>
+      <c r="B488" s="0">
+        <v>0.59148137178539317</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0">
+        <v>81.166666666666672</v>
+      </c>
+      <c r="B489" s="0">
+        <v>0.59200867158292991</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="B490" s="0">
+        <v>0.5925156879842356</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0">
+        <v>81.5</v>
+      </c>
+      <c r="B491" s="0">
+        <v>0.59300460002451161</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0">
+        <v>81.666666666666672</v>
+      </c>
+      <c r="B492" s="0">
+        <v>0.59347735672404511</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0">
+        <v>81.833333333333329</v>
+      </c>
+      <c r="B493" s="0">
+        <v>0.59393497848779664</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0">
+        <v>82</v>
+      </c>
+      <c r="B494" s="0">
+        <v>0.59437940123582178</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0">
+        <v>82.166666666666672</v>
+      </c>
+      <c r="B495" s="0">
+        <v>0.59481099960442441</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0">
+        <v>82.333333333333329</v>
+      </c>
+      <c r="B496" s="0">
+        <v>0.59523175160970943</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0">
+        <v>82.5</v>
+      </c>
+      <c r="B497" s="0">
+        <v>0.59564206601706782</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0">
+        <v>82.666666666666672</v>
+      </c>
+      <c r="B498" s="0">
+        <v>0.59604328132029871</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0">
+        <v>82.833333333333329</v>
+      </c>
+      <c r="B499" s="0">
+        <v>0.59643590487503917</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0">
+        <v>83</v>
+      </c>
+      <c r="B500" s="0">
+        <v>0.59682036984417042</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0">
+        <v>83.166666666666672</v>
+      </c>
+      <c r="B501" s="0">
+        <v>0.59719751042650571</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="B502" s="0">
+        <v>0.59756697682088156</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0">
+        <v>83.5</v>
+      </c>
+      <c r="B503" s="0">
+        <v>0.59792874981232691</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="0">
+        <v>83.666666666666672</v>
+      </c>
+      <c r="B504" s="0">
+        <v>0.59828714759396717</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="0">
+        <v>83.833333333333329</v>
+      </c>
+      <c r="B505" s="0">
+        <v>0.59864247551496219</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="0">
+        <v>84</v>
+      </c>
+      <c r="B506" s="0">
+        <v>0.59751948407022049</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="0">
+        <v>84.166666666666672</v>
+      </c>
+      <c r="B507" s="0">
+        <v>0.59208979523095506</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="0">
+        <v>84.333333333333329</v>
+      </c>
+      <c r="B508" s="0">
+        <v>0.58980261805896261</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="0">
+        <v>84.5</v>
+      </c>
+      <c r="B509" s="0">
+        <v>0.59253198967196363</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="0">
+        <v>84.666666666666672</v>
+      </c>
+      <c r="B510" s="0">
+        <v>0.59543056693623064</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="0">
+        <v>84.833333333333329</v>
+      </c>
+      <c r="B511" s="0">
+        <v>0.59772180645560547</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="0">
+        <v>85</v>
+      </c>
+      <c r="B512" s="0">
+        <v>0.59774452011506174</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="0">
+        <v>85.166666666666672</v>
+      </c>
+      <c r="B513" s="0">
+        <v>0.59232404157660101</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="0">
+        <v>85.333333333333329</v>
+      </c>
+      <c r="B514" s="0">
+        <v>0.5903286117237927</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="0">
+        <v>85.5</v>
+      </c>
+      <c r="B515" s="0">
+        <v>0.59137849140615384</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="0">
+        <v>85.666666666666672</v>
+      </c>
+      <c r="B516" s="0">
+        <v>0.59397338222261586</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="0">
+        <v>85.833333333333329</v>
+      </c>
+      <c r="B517" s="0">
+        <v>0.59622678146964625</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="0">
+        <v>86</v>
+      </c>
+      <c r="B518" s="0">
+        <v>0.59350160802281116</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="0">
+        <v>86.166666666666672</v>
+      </c>
+      <c r="B519" s="0">
+        <v>0.58837131454392333</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="0">
+        <v>86.333333333333329</v>
+      </c>
+      <c r="B520" s="0">
+        <v>0.58608440936358486</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="0">
+        <v>86.5</v>
+      </c>
+      <c r="B521" s="0">
+        <v>0.58685932469529523</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0">
+        <v>86.666666666666672</v>
+      </c>
+      <c r="B522" s="0">
+        <v>0.58944594899360192</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="0">
+        <v>86.833333333333329</v>
+      </c>
+      <c r="B523" s="0">
+        <v>0.59237950926033689</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="0">
+        <v>87</v>
+      </c>
+      <c r="B524" s="0">
+        <v>0.58956816292895697</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="0">
+        <v>87.166666666666672</v>
+      </c>
+      <c r="B525" s="0">
+        <v>0.58426641070368546</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0">
+        <v>87.333333333333329</v>
+      </c>
+      <c r="B526" s="0">
+        <v>0.58233637621371781</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="0">
+        <v>87.5</v>
+      </c>
+      <c r="B527" s="0">
+        <v>0.58393333638809886</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="0">
+        <v>87.666666666666672</v>
+      </c>
+      <c r="B528" s="0">
+        <v>0.58685454328986142</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0">
+        <v>87.833333333333329</v>
+      </c>
+      <c r="B529" s="0">
+        <v>0.5899559272224425</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="0">
+        <v>88</v>
+      </c>
+      <c r="B530" s="0">
+        <v>0.58777922789988135</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="0">
+        <v>88.166666666666672</v>
+      </c>
+      <c r="B531" s="0">
+        <v>0.5829420252414691</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="0">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="B532" s="0">
+        <v>0.58155657754743073</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="0">
+        <v>88.5</v>
+      </c>
+      <c r="B533" s="0">
+        <v>0.58068517252993013</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="0">
+        <v>88.666666666666672</v>
+      </c>
+      <c r="B534" s="0">
+        <v>0.58008342019072534</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="0">
+        <v>88.833333333333329</v>
+      </c>
+      <c r="B535" s="0">
+        <v>0.57964339248749419</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0">
+        <v>89</v>
+      </c>
+      <c r="B536" s="0">
+        <v>0.57932139487588286</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="0">
+        <v>89.166666666666672</v>
+      </c>
+      <c r="B537" s="0">
+        <v>0.57909884681163826</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="0">
+        <v>89.333333333333329</v>
+      </c>
+      <c r="B538" s="0">
+        <v>0.57896009641496393</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0">
+        <v>89.5</v>
+      </c>
+      <c r="B539" s="0">
+        <v>0.57889511527580517</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="0">
+        <v>89.666666666666672</v>
+      </c>
+      <c r="B540" s="0">
+        <v>0.57889042735624763</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="0">
+        <v>89.833333333333329</v>
+      </c>
+      <c r="B541" s="0">
+        <v>0.57894720854959014</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="0">
+        <v>90</v>
+      </c>
+      <c r="B542" s="0">
+        <v>0.57905147296388049</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="0">
+        <v>90.166666666666672</v>
+      </c>
+      <c r="B543" s="0">
+        <v>0.57921577963130144</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="0">
+        <v>90.333333333333329</v>
+      </c>
+      <c r="B544" s="0">
+        <v>0.57942456921679753</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="0">
+        <v>90.5</v>
+      </c>
+      <c r="B545" s="0">
+        <v>0.57965987260205276</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="0">
+        <v>90.666666666666672</v>
+      </c>
+      <c r="B546" s="0">
+        <v>0.57993635349615902</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="0">
+        <v>90.833333333333329</v>
+      </c>
+      <c r="B547" s="0">
+        <v>0.5802544952858395</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="0">
+        <v>91</v>
+      </c>
+      <c r="B548" s="0">
+        <v>0.58061280783353308</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="0">
+        <v>91.166666666666672</v>
+      </c>
+      <c r="B549" s="0">
+        <v>0.58091269984966121</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="0">
+        <v>91.333333333333329</v>
+      </c>
+      <c r="B550" s="0">
+        <v>0.58154310622928962</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="0">
+        <v>91.5</v>
+      </c>
+      <c r="B551" s="0">
+        <v>0.58531148302425928</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="0">
+        <v>91.666666666666672</v>
+      </c>
+      <c r="B552" s="0">
+        <v>0.58885238489757252</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0">
+        <v>91.833333333333329</v>
+      </c>
+      <c r="B553" s="0">
+        <v>0.59190488921401951</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="0">
+        <v>92</v>
+      </c>
+      <c r="B554" s="0">
+        <v>0.59388392574548843</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="0">
+        <v>92.166666666666672</v>
+      </c>
+      <c r="B555" s="0">
+        <v>0.59543591410610042</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0">
+        <v>92.333333333333329</v>
+      </c>
+      <c r="B556" s="0">
+        <v>0.59754982018853664</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0">
+        <v>92.5</v>
+      </c>
+      <c r="B557" s="0">
+        <v>0.59981782837294595</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0">
+        <v>92.666666666666672</v>
+      </c>
+      <c r="B558" s="0">
+        <v>0.60168489796094693</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="0">
+        <v>92.833333333333329</v>
+      </c>
+      <c r="B559" s="0">
+        <v>0.60343401913380479</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="0">
+        <v>93</v>
+      </c>
+      <c r="B560" s="0">
+        <v>0.6045242777425337</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="0">
+        <v>93.166666666666672</v>
+      </c>
+      <c r="B561" s="0">
+        <v>0.60156288596029206</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="0">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="B562" s="0">
+        <v>0.60119700475342353</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="0">
+        <v>93.5</v>
+      </c>
+      <c r="B563" s="0">
+        <v>0.60253940364483583</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="0">
+        <v>93.666666666666672</v>
+      </c>
+      <c r="B564" s="0">
+        <v>0.604683913477987</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="0">
+        <v>93.833333333333329</v>
+      </c>
+      <c r="B565" s="0">
+        <v>0.606692513391074</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="0">
+        <v>94</v>
+      </c>
+      <c r="B566" s="0">
+        <v>0.60689066042334416</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="0">
+        <v>94.166666666666672</v>
+      </c>
+      <c r="B567" s="0">
+        <v>0.60199473354574684</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0">
+        <v>94.333333333333329</v>
+      </c>
+      <c r="B568" s="0">
+        <v>0.6053944380277041</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="0">
+        <v>94.5</v>
+      </c>
+      <c r="B569" s="0">
+        <v>0.6071933259196316</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="0">
+        <v>94.666666666666672</v>
+      </c>
+      <c r="B570" s="0">
+        <v>0.60895754447183304</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0">
+        <v>94.833333333333329</v>
+      </c>
+      <c r="B571" s="0">
+        <v>0.61078711770108629</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="0">
+        <v>95</v>
+      </c>
+      <c r="B572" s="0">
+        <v>0.60958334055613406</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="0">
+        <v>95.166666666666672</v>
+      </c>
+      <c r="B573" s="0">
+        <v>0.60354799736615672</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0">
+        <v>95.333333333333329</v>
+      </c>
+      <c r="B574" s="0">
+        <v>0.60032121300634633</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="0">
+        <v>95.5</v>
+      </c>
+      <c r="B575" s="0">
+        <v>0.60127637164828129</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="0">
+        <v>95.666666666666672</v>
+      </c>
+      <c r="B576" s="0">
+        <v>0.6028230433042947</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="0">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="B577" s="0">
+        <v>0.6047478123101363</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="0">
+        <v>96</v>
+      </c>
+      <c r="B578" s="0">
+        <v>0.60396783713052515</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="0">
+        <v>96.166666666666672</v>
+      </c>
+      <c r="B579" s="0">
+        <v>0.59984352012687892</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="0">
+        <v>96.333333333333329</v>
+      </c>
+      <c r="B580" s="0">
+        <v>0.59915357191349228</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="0">
+        <v>96.5</v>
+      </c>
+      <c r="B581" s="0">
+        <v>0.60054748291818583</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="0">
+        <v>96.666666666666672</v>
+      </c>
+      <c r="B582" s="0">
+        <v>0.6010119300613711</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="0">
+        <v>96.833333333333329</v>
+      </c>
+      <c r="B583" s="0">
+        <v>0.60011882387083815</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="0">
+        <v>97</v>
+      </c>
+      <c r="B584" s="0">
+        <v>0.59709697938819162</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="0">
+        <v>97.166666666666672</v>
+      </c>
+      <c r="B585" s="0">
+        <v>0.59341814459452957</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="0">
+        <v>97.333333333333329</v>
+      </c>
+      <c r="B586" s="0">
+        <v>0.59245721746897051</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="0">
+        <v>97.5</v>
+      </c>
+      <c r="B587" s="0">
+        <v>0.59348748703255771</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0">
+        <v>97.666666666666672</v>
+      </c>
+      <c r="B588" s="0">
+        <v>0.5953445002424751</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="0">
+        <v>97.833333333333329</v>
+      </c>
+      <c r="B589" s="0">
+        <v>0.59854792126888978</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="0">
+        <v>98</v>
+      </c>
+      <c r="B590" s="0">
+        <v>0.59617639338435457</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0">
+        <v>98.166666666666672</v>
+      </c>
+      <c r="B591" s="0">
+        <v>0.59150442623495925</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="0">
+        <v>98.333333333333329</v>
+      </c>
+      <c r="B592" s="0">
+        <v>0.59028277702665588</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="0">
+        <v>98.5</v>
+      </c>
+      <c r="B593" s="0">
+        <v>0.59234074945660542</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="0">
+        <v>98.666666666666672</v>
+      </c>
+      <c r="B594" s="0">
+        <v>0.59559495211008895</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0">
+        <v>98.833333333333329</v>
+      </c>
+      <c r="B595" s="0">
+        <v>0.59886956867193864</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="0">
+        <v>99</v>
+      </c>
+      <c r="B596" s="0">
+        <v>0.59746983177619184</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="0">
+        <v>99.166666666666672</v>
+      </c>
+      <c r="B597" s="0">
+        <v>0.59197020416803281</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0">
+        <v>99.333333333333329</v>
+      </c>
+      <c r="B598" s="0">
+        <v>0.59064756221440606</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="0">
+        <v>99.5</v>
+      </c>
+      <c r="B599" s="0">
+        <v>0.59288425432077296</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="0">
+        <v>99.666666666666672</v>
+      </c>
+      <c r="B600" s="0">
+        <v>0.59630245019742845</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="0">
+        <v>99.833333333333329</v>
+      </c>
+      <c r="B601" s="0">
+        <v>0.59955777875714533</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="0">
+        <v>100</v>
+      </c>
+      <c r="B602" s="0">
+        <v>0.59888554604573752</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="0">
+        <v>100.16666666666667</v>
+      </c>
+      <c r="B603" s="0">
+        <v>0.5928880511354524</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="0">
+        <v>100.33333333333333</v>
+      </c>
+      <c r="B604" s="0">
+        <v>0.59115832962901782</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="0">
+        <v>100.5</v>
+      </c>
+      <c r="B605" s="0">
+        <v>0.59377043688776099</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="0">
+        <v>100.66666666666667</v>
+      </c>
+      <c r="B606" s="0">
+        <v>0.59703088920475678</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="0">
+        <v>100.83333333333333</v>
+      </c>
+      <c r="B607" s="0">
+        <v>0.60051034034476947</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="0">
+        <v>101</v>
+      </c>
+      <c r="B608" s="0">
+        <v>0.59959671251926827</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="0">
+        <v>101.16666666666667</v>
+      </c>
+      <c r="B609" s="0">
+        <v>0.59335903004653279</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="0">
+        <v>101.33333333333333</v>
+      </c>
+      <c r="B610" s="0">
+        <v>0.59130160597911496</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="0">
+        <v>101.5</v>
+      </c>
+      <c r="B611" s="0">
+        <v>0.59392289405553655</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="0">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="B612" s="0">
+        <v>0.59726366097477823</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="0">
+        <v>101.83333333333333</v>
+      </c>
+      <c r="B613" s="0">
+        <v>0.60061708272372227</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="0">
+        <v>102</v>
+      </c>
+      <c r="B614" s="0">
+        <v>0.59954992557387821</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="0">
+        <v>102.16666666666667</v>
+      </c>
+      <c r="B615" s="0">
+        <v>0.59370407930339841</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="0">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="B616" s="0">
+        <v>0.59218393059420482</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="0">
+        <v>102.5</v>
+      </c>
+      <c r="B617" s="0">
+        <v>0.59520288585945658</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="0">
+        <v>102.66666666666667</v>
+      </c>
+      <c r="B618" s="0">
+        <v>0.5989504837107823</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="0">
+        <v>102.83333333333333</v>
+      </c>
+      <c r="B619" s="0">
+        <v>0.6023539194694173</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="0">
+        <v>103</v>
+      </c>
+      <c r="B620" s="0">
+        <v>0.60320687203445689</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="0">
+        <v>103.16666666666667</v>
+      </c>
+      <c r="B621" s="0">
+        <v>0.59684222904401318</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="0">
+        <v>103.33333333333333</v>
+      </c>
+      <c r="B622" s="0">
+        <v>0.59487885461097989</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="0">
+        <v>103.5</v>
+      </c>
+      <c r="B623" s="0">
+        <v>0.59756244006545045</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="0">
+        <v>103.66666666666667</v>
+      </c>
+      <c r="B624" s="0">
+        <v>0.60104993602621848</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="0">
+        <v>103.83333333333333</v>
+      </c>
+      <c r="B625" s="0">
+        <v>0.60462382502866419</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="0">
+        <v>104</v>
+      </c>
+      <c r="B626" s="0">
+        <v>0.60509775018641288</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="0">
+        <v>104.16666666666667</v>
+      </c>
+      <c r="B627" s="0">
+        <v>0.59840839971716908</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="0">
+        <v>104.33333333333333</v>
+      </c>
+      <c r="B628" s="0">
+        <v>0.59554658949006711</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="0">
+        <v>104.5</v>
+      </c>
+      <c r="B629" s="0">
+        <v>0.59779758624642543</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="0">
+        <v>104.66666666666667</v>
+      </c>
+      <c r="B630" s="0">
+        <v>0.60075570732172268</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="0">
+        <v>104.83333333333333</v>
+      </c>
+      <c r="B631" s="0">
+        <v>0.60373172473504544</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="0">
+        <v>105</v>
+      </c>
+      <c r="B632" s="0">
+        <v>0.60228007445224296</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="0">
+        <v>105.16666666666667</v>
+      </c>
+      <c r="B633" s="0">
+        <v>0.59584029181732234</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="0">
+        <v>105.33333333333333</v>
+      </c>
+      <c r="B634" s="0">
+        <v>0.59435532045912243</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="0">
+        <v>105.5</v>
+      </c>
+      <c r="B635" s="0">
+        <v>0.59521648081682499</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="0">
+        <v>105.66666666666667</v>
+      </c>
+      <c r="B636" s="0">
+        <v>0.59789896768767859</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="0">
+        <v>105.83333333333333</v>
+      </c>
+      <c r="B637" s="0">
+        <v>0.60083087320937212</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="0">
+        <v>106</v>
+      </c>
+      <c r="B638" s="0">
+        <v>0.59952190321416221</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="0">
+        <v>106.16666666666667</v>
+      </c>
+      <c r="B639" s="0">
+        <v>0.59472841408516919</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="0">
+        <v>106.33333333333333</v>
+      </c>
+      <c r="B640" s="0">
+        <v>0.59472404958910008</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="0">
+        <v>106.5</v>
+      </c>
+      <c r="B641" s="0">
+        <v>0.59584438591325739</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="0">
+        <v>106.66666666666667</v>
+      </c>
+      <c r="B642" s="0">
+        <v>0.59945712678923235</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="0">
+        <v>106.83333333333333</v>
+      </c>
+      <c r="B643" s="0">
+        <v>0.60367072539060984</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="0">
+        <v>107</v>
+      </c>
+      <c r="B644" s="0">
+        <v>0.60656297335487552</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="0">
+        <v>107.16666666666667</v>
+      </c>
+      <c r="B645" s="0">
+        <v>0.6065006269400085</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="0">
+        <v>107.33333333333333</v>
+      </c>
+      <c r="B646" s="0">
+        <v>0.60647931841168912</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="0">
+        <v>107.5</v>
+      </c>
+      <c r="B647" s="0">
+        <v>0.6071838220085235</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="0">
+        <v>107.66666666666667</v>
+      </c>
+      <c r="B648" s="0">
+        <v>0.60830202019884006</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="0">
+        <v>107.83333333333333</v>
+      </c>
+      <c r="B649" s="0">
+        <v>0.61126228074742617</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="0">
+        <v>108</v>
+      </c>
+      <c r="B650" s="0">
+        <v>0.60912986786473056</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="0">
+        <v>108.16666666666667</v>
+      </c>
+      <c r="B651" s="0">
+        <v>0.60371373718139265</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="0">
+        <v>108.33333333333333</v>
+      </c>
+      <c r="B652" s="0">
+        <v>0.60230525621643605</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="0">
+        <v>108.5</v>
+      </c>
+      <c r="B653" s="0">
+        <v>0.60382975952814555</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="0">
+        <v>108.66666666666667</v>
+      </c>
+      <c r="B654" s="0">
+        <v>0.60658809241564904</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="0">
+        <v>108.83333333333333</v>
+      </c>
+      <c r="B655" s="0">
+        <v>0.60968227131355068</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="0">
+        <v>109</v>
+      </c>
+      <c r="B656" s="0">
+        <v>0.60819680123384834</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="0">
+        <v>109.16666666666667</v>
+      </c>
+      <c r="B657" s="0">
+        <v>0.6028613302904865</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="0">
+        <v>109.33333333333333</v>
+      </c>
+      <c r="B658" s="0">
+        <v>0.60167915319711351</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="0">
+        <v>109.5</v>
+      </c>
+      <c r="B659" s="0">
+        <v>0.60448055438474635</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="0">
+        <v>109.66666666666667</v>
+      </c>
+      <c r="B660" s="0">
+        <v>0.60801166702089504</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="0">
+        <v>109.83333333333333</v>
+      </c>
+      <c r="B661" s="0">
+        <v>0.61184685202748701</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="0">
+        <v>110</v>
+      </c>
+      <c r="B662" s="0">
+        <v>0.61312502750069575</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="0">
+        <v>110.16666666666667</v>
+      </c>
+      <c r="B663" s="0">
+        <v>0.60700657153593685</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="0">
+        <v>110.33333333333333</v>
+      </c>
+      <c r="B664" s="0">
+        <v>0.60449775092411151</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="0">
+        <v>110.5</v>
+      </c>
+      <c r="B665" s="0">
+        <v>0.60593093248218788</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="0">
+        <v>110.66666666666667</v>
+      </c>
+      <c r="B666" s="0">
+        <v>0.60943178027838596</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="0">
+        <v>110.83333333333333</v>
+      </c>
+      <c r="B667" s="0">
+        <v>0.6124930937299744</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="0">
+        <v>111</v>
+      </c>
+      <c r="B668" s="0">
+        <v>0.61249732155314318</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="0">
+        <v>111.16666666666667</v>
+      </c>
+      <c r="B669" s="0">
+        <v>0.60780869451221264</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="0">
+        <v>111.33333333333333</v>
+      </c>
+      <c r="B670" s="0">
+        <v>0.60819803533084649</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="0">
+        <v>111.5</v>
+      </c>
+      <c r="B671" s="0">
+        <v>0.60911163942049373</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="0">
+        <v>111.66666666666667</v>
+      </c>
+      <c r="B672" s="0">
+        <v>0.61284450445104699</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="0">
+        <v>111.83333333333333</v>
+      </c>
+      <c r="B673" s="0">
+        <v>0.61579802960924723</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="0">
+        <v>112</v>
+      </c>
+      <c r="B674" s="0">
+        <v>0.61809176497620444</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="0">
+        <v>112.16666666666667</v>
+      </c>
+      <c r="B675" s="0">
+        <v>0.62006052095857966</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="0">
+        <v>112.33333333333333</v>
+      </c>
+      <c r="B676" s="0">
+        <v>0.6213282476728561</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="0">
+        <v>112.5</v>
+      </c>
+      <c r="B677" s="0">
+        <v>0.62303902184581939</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="0">
+        <v>112.66666666666667</v>
+      </c>
+      <c r="B678" s="0">
+        <v>0.62530385655155818</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="0">
+        <v>112.83333333333333</v>
+      </c>
+      <c r="B679" s="0">
+        <v>0.6265085180193094</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="0">
+        <v>113</v>
+      </c>
+      <c r="B680" s="0">
+        <v>0.62632663669353794</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="0">
+        <v>113.16666666666667</v>
+      </c>
+      <c r="B681" s="0">
+        <v>0.62132634836683787</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="0">
+        <v>113.33333333333333</v>
+      </c>
+      <c r="B682" s="0">
+        <v>0.61934383958424444</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="0">
+        <v>113.5</v>
+      </c>
+      <c r="B683" s="0">
+        <v>0.62155036482266413</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="0">
+        <v>113.66666666666667</v>
+      </c>
+      <c r="B684" s="0">
+        <v>0.62437187776505354</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="0">
+        <v>113.83333333333333</v>
+      </c>
+      <c r="B685" s="0">
+        <v>0.62706994654552939</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="0">
+        <v>114</v>
+      </c>
+      <c r="B686" s="0">
+        <v>0.62814728323675528</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="0">
+        <v>114.16666666666667</v>
+      </c>
+      <c r="B687" s="0">
+        <v>0.62425675481413401</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="0">
+        <v>114.33333333333333</v>
+      </c>
+      <c r="B688" s="0">
+        <v>0.62264808413655692</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="0">
+        <v>114.5</v>
+      </c>
+      <c r="B689" s="0">
+        <v>0.62187433885553356</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="0">
+        <v>114.66666666666667</v>
+      </c>
+      <c r="B690" s="0">
+        <v>0.62186737673234271</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="0">
+        <v>114.83333333333333</v>
+      </c>
+      <c r="B691" s="0">
+        <v>0.62312427519124503</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="0">
+        <v>115</v>
+      </c>
+      <c r="B692" s="0">
+        <v>0.62231069392222171</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="0">
+        <v>115.16666666666667</v>
+      </c>
+      <c r="B693" s="0">
+        <v>0.62096315213827569</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="0">
+        <v>115.33333333333333</v>
+      </c>
+      <c r="B694" s="0">
+        <v>0.62104688142728737</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="0">
+        <v>115.5</v>
+      </c>
+      <c r="B695" s="0">
+        <v>0.62207258498051377</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="0">
+        <v>115.66666666666667</v>
+      </c>
+      <c r="B696" s="0">
+        <v>0.62396008272849268</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="0">
+        <v>115.83333333333333</v>
+      </c>
+      <c r="B697" s="0">
+        <v>0.62586532774994497</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="0">
+        <v>116</v>
+      </c>
+      <c r="B698" s="0">
+        <v>0.62612925727281788</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="0">
+        <v>116.16666666666667</v>
+      </c>
+      <c r="B699" s="0">
+        <v>0.62453880036533216</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="0">
+        <v>116.33333333333333</v>
+      </c>
+      <c r="B700" s="0">
+        <v>0.62465628550956342</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="0">
+        <v>116.5</v>
+      </c>
+      <c r="B701" s="0">
+        <v>0.62603414907322652</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="0">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="B702" s="0">
+        <v>0.62807595441622388</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="0">
+        <v>116.83333333333333</v>
+      </c>
+      <c r="B703" s="0">
+        <v>0.62984989983954298</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="0">
+        <v>117</v>
+      </c>
+      <c r="B704" s="0">
+        <v>0.63029277548493579</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="0">
+        <v>117.16666666666667</v>
+      </c>
+      <c r="B705" s="0">
+        <v>0.63125018326747529</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="0">
+        <v>117.33333333333333</v>
+      </c>
+      <c r="B706" s="0">
+        <v>0.63134403333335276</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="0">
+        <v>117.5</v>
+      </c>
+      <c r="B707" s="0">
+        <v>0.63288706484982671</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="0">
+        <v>117.66666666666667</v>
+      </c>
+      <c r="B708" s="0">
+        <v>0.63407705277734494</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="0">
+        <v>117.83333333333333</v>
+      </c>
+      <c r="B709" s="0">
+        <v>0.63496838077166873</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="0">
+        <v>118</v>
+      </c>
+      <c r="B710" s="0">
+        <v>0.6332233607922193</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="0">
+        <v>118.16666666666667</v>
+      </c>
+      <c r="B711" s="0">
+        <v>0.62838800832310049</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="0">
+        <v>118.33333333333333</v>
+      </c>
+      <c r="B712" s="0">
+        <v>0.62871662303111731</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="0">
+        <v>118.5</v>
+      </c>
+      <c r="B713" s="0">
+        <v>0.63123163302604479</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="0">
+        <v>118.66666666666667</v>
+      </c>
+      <c r="B714" s="0">
+        <v>0.63298170757234251</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="0">
+        <v>118.83333333333333</v>
+      </c>
+      <c r="B715" s="0">
+        <v>0.63437999812856594</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="0">
+        <v>119</v>
+      </c>
+      <c r="B716" s="0">
+        <v>0.63244671123207008</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="0">
+        <v>119.16666666666667</v>
+      </c>
+      <c r="B717" s="0">
+        <v>0.62585322720669367</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="0">
+        <v>119.33333333333333</v>
+      </c>
+      <c r="B718" s="0">
+        <v>0.625148051339523</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="0">
+        <v>119.5</v>
+      </c>
+      <c r="B719" s="0">
+        <v>0.62708582733500728</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="0">
+        <v>119.66666666666667</v>
+      </c>
+      <c r="B720" s="0">
+        <v>0.62982921144555326</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="0">
+        <v>119.83333333333333</v>
+      </c>
+      <c r="B721" s="0">
+        <v>0.63280074553755184</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="0">
+        <v>120</v>
+      </c>
+      <c r="B722" s="0">
+        <v>0.63382155986694511</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="0">
+        <v>120.16666666666667</v>
+      </c>
+      <c r="B723" s="0">
+        <v>0.63045379568902138</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="0">
+        <v>120.33333333333333</v>
+      </c>
+      <c r="B724" s="0">
+        <v>0.63173438968809681</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="0">
+        <v>120.5</v>
+      </c>
+      <c r="B725" s="0">
+        <v>0.63421350710611735</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="0">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="B726" s="0">
+        <v>0.63656101908396923</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="0">
+        <v>120.83333333333333</v>
+      </c>
+      <c r="B727" s="0">
+        <v>0.63777548060657074</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="0">
+        <v>121</v>
+      </c>
+      <c r="B728" s="0">
+        <v>0.63481123379651128</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="0">
+        <v>121.16666666666667</v>
+      </c>
+      <c r="B729" s="0">
+        <v>0.62774060096786766</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="0">
+        <v>121.33333333333333</v>
+      </c>
+      <c r="B730" s="0">
+        <v>0.62447862259608777</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="0">
+        <v>121.5</v>
+      </c>
+      <c r="B731" s="0">
+        <v>0.62474826283875695</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="0">
+        <v>121.66666666666667</v>
+      </c>
+      <c r="B732" s="0">
+        <v>0.62564740536223196</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="0">
+        <v>121.83333333333333</v>
+      </c>
+      <c r="B733" s="0">
+        <v>0.62784635924930154</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="0">
+        <v>122</v>
+      </c>
+      <c r="B734" s="0">
+        <v>0.62677601963705876</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="0">
+        <v>122.16666666666667</v>
+      </c>
+      <c r="B735" s="0">
+        <v>0.6194730262167113</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="0">
+        <v>122.33333333333333</v>
+      </c>
+      <c r="B736" s="0">
+        <v>0.61715758830114498</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="0">
+        <v>122.5</v>
+      </c>
+      <c r="B737" s="0">
+        <v>0.61824165426502253</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="0">
+        <v>122.66666666666667</v>
+      </c>
+      <c r="B738" s="0">
+        <v>0.61926812585455915</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="0">
+        <v>122.83333333333333</v>
+      </c>
+      <c r="B739" s="0">
+        <v>0.62010644624398259</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="0">
+        <v>123</v>
+      </c>
+      <c r="B740" s="0">
+        <v>0.61929419605816916</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="0">
+        <v>123.16666666666667</v>
+      </c>
+      <c r="B741" s="0">
+        <v>0.61440002130933569</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="0">
+        <v>123.33333333333333</v>
+      </c>
+      <c r="B742" s="0">
+        <v>0.6143512652113613</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="0">
+        <v>123.5</v>
+      </c>
+      <c r="B743" s="0">
+        <v>0.61626277312481925</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="0">
+        <v>123.66666666666667</v>
+      </c>
+      <c r="B744" s="0">
+        <v>0.61796405899764728</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="0">
+        <v>123.83333333333333</v>
+      </c>
+      <c r="B745" s="0">
+        <v>0.62089063421654722</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="0">
+        <v>124</v>
+      </c>
+      <c r="B746" s="0">
+        <v>0.62053111906048597</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="0">
+        <v>124.16666666666667</v>
+      </c>
+      <c r="B747" s="0">
+        <v>0.61686245261172923</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="0">
+        <v>124.33333333333333</v>
+      </c>
+      <c r="B748" s="0">
+        <v>0.61726921132312473</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="0">
+        <v>124.5</v>
+      </c>
+      <c r="B749" s="0">
+        <v>0.61993722080336977</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="0">
+        <v>124.66666666666667</v>
+      </c>
+      <c r="B750" s="0">
+        <v>0.62342244536143754</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="0">
+        <v>124.83333333333333</v>
+      </c>
+      <c r="B751" s="0">
+        <v>0.62664707776973272</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="0">
+        <v>125</v>
+      </c>
+      <c r="B752" s="0">
+        <v>0.6282628190653482</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="0">
+        <v>125.16666666666667</v>
+      </c>
+      <c r="B753" s="0">
+        <v>0.62689834424642521</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="0">
+        <v>125.33333333333333</v>
+      </c>
+      <c r="B754" s="0">
+        <v>0.62652341496330621</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="0">
+        <v>125.5</v>
+      </c>
+      <c r="B755" s="0">
+        <v>0.62697290034485764</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="0">
+        <v>125.66666666666667</v>
+      </c>
+      <c r="B756" s="0">
+        <v>0.62612491506210533</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="0">
+        <v>125.83333333333333</v>
+      </c>
+      <c r="B757" s="0">
+        <v>0.62581411196534886</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="0">
+        <v>126</v>
+      </c>
+      <c r="B758" s="0">
+        <v>0.62373950661508448</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="0">
+        <v>126.16666666666667</v>
+      </c>
+      <c r="B759" s="0">
+        <v>0.61942469811118139</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="0">
+        <v>126.33333333333333</v>
+      </c>
+      <c r="B760" s="0">
+        <v>0.61904070375577103</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="0">
+        <v>126.5</v>
+      </c>
+      <c r="B761" s="0">
+        <v>0.61966667397155606</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="0">
+        <v>126.66666666666667</v>
+      </c>
+      <c r="B762" s="0">
+        <v>0.61991678331059885</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="0">
+        <v>126.83333333333333</v>
+      </c>
+      <c r="B763" s="0">
+        <v>0.62042804150989861</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="0">
+        <v>127</v>
+      </c>
+      <c r="B764" s="0">
+        <v>0.61929327686684288</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="0">
+        <v>127.16666666666667</v>
+      </c>
+      <c r="B765" s="0">
+        <v>0.61663746041364975</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="0">
+        <v>127.33333333333333</v>
+      </c>
+      <c r="B766" s="0">
+        <v>0.61664553004088241</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="0">
+        <v>127.5</v>
+      </c>
+      <c r="B767" s="0">
+        <v>0.61756019082280822</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="0">
+        <v>127.66666666666667</v>
+      </c>
+      <c r="B768" s="0">
+        <v>0.61817659564231531</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="0">
+        <v>127.83333333333333</v>
+      </c>
+      <c r="B769" s="0">
+        <v>0.61916354879782498</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="0">
+        <v>128</v>
+      </c>
+      <c r="B770" s="0">
+        <v>0.61725401476778152</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="0">
+        <v>128.16666666666666</v>
+      </c>
+      <c r="B771" s="0">
+        <v>0.61431150032756121</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="0">
+        <v>128.33333333333334</v>
+      </c>
+      <c r="B772" s="0">
+        <v>0.61401099913968216</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="0">
+        <v>128.5</v>
+      </c>
+      <c r="B773" s="0">
+        <v>0.61557243422354169</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="0">
+        <v>128.66666666666666</v>
+      </c>
+      <c r="B774" s="0">
+        <v>0.6182924411249161</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="0">
+        <v>128.83333333333334</v>
+      </c>
+      <c r="B775" s="0">
+        <v>0.62068592163972647</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="0">
+        <v>129</v>
+      </c>
+      <c r="B776" s="0">
+        <v>0.61954890159093923</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="0">
+        <v>129.16666666666666</v>
+      </c>
+      <c r="B777" s="0">
+        <v>0.6156077980745237</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="0">
+        <v>129.33333333333334</v>
+      </c>
+      <c r="B778" s="0">
+        <v>0.61532208112270226</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="0">
+        <v>129.5</v>
+      </c>
+      <c r="B779" s="0">
+        <v>0.61638233879208437</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="0">
+        <v>129.66666666666666</v>
+      </c>
+      <c r="B780" s="0">
+        <v>0.61797354635428225</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="0">
+        <v>129.83333333333334</v>
+      </c>
+      <c r="B781" s="0">
+        <v>0.61971860202832618</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="0">
+        <v>130</v>
+      </c>
+      <c r="B782" s="0">
+        <v>0.61852283694211818</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="0">
+        <v>130.16666666666666</v>
+      </c>
+      <c r="B783" s="0">
+        <v>0.61535769295815512</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="0">
+        <v>130.33333333333334</v>
+      </c>
+      <c r="B784" s="0">
+        <v>0.6149477823541144</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="0">
+        <v>130.5</v>
+      </c>
+      <c r="B785" s="0">
+        <v>0.61641929506851556</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="0">
+        <v>130.66666666666666</v>
+      </c>
+      <c r="B786" s="0">
+        <v>0.6189234863542431</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="0">
+        <v>130.83333333333334</v>
+      </c>
+      <c r="B787" s="0">
+        <v>0.62139844853056148</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="0">
+        <v>131</v>
+      </c>
+      <c r="B788" s="0">
+        <v>0.62138949880994265</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="0">
+        <v>131.16666666666666</v>
+      </c>
+      <c r="B789" s="0">
+        <v>0.6180940987526522</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="0">
+        <v>131.33333333333334</v>
+      </c>
+      <c r="B790" s="0">
+        <v>0.61828177553349639</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="0">
+        <v>131.5</v>
+      </c>
+      <c r="B791" s="0">
+        <v>0.61883839368268312</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="0">
+        <v>131.66666666666666</v>
+      </c>
+      <c r="B792" s="0">
+        <v>0.61972527184094428</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="0">
+        <v>131.83333333333334</v>
+      </c>
+      <c r="B793" s="0">
+        <v>0.62073898005188599</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="0">
+        <v>132</v>
+      </c>
+      <c r="B794" s="0">
+        <v>0.62103627199797573</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="0">
+        <v>132.16666666666666</v>
+      </c>
+      <c r="B795" s="0">
+        <v>0.61986593289685044</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="0">
+        <v>132.33333333333334</v>
+      </c>
+      <c r="B796" s="0">
+        <v>0.61981077270933982</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="0">
+        <v>132.5</v>
+      </c>
+      <c r="B797" s="0">
+        <v>0.62141122387286696</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="0">
+        <v>132.66666666666666</v>
+      </c>
+      <c r="B798" s="0">
+        <v>0.62294000220573365</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="0">
+        <v>132.83333333333334</v>
+      </c>
+      <c r="B799" s="0">
+        <v>0.62398759976717899</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="0">
+        <v>133</v>
+      </c>
+      <c r="B800" s="0">
+        <v>0.62600467843270413</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="0">
+        <v>133.16666666666666</v>
+      </c>
+      <c r="B801" s="0">
+        <v>0.62837660125940842</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="0">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="B802" s="0">
+        <v>0.63056135500757371</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="0">
+        <v>133.5</v>
+      </c>
+      <c r="B803" s="0">
+        <v>0.63234425813806339</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="0">
+        <v>133.66666666666666</v>
+      </c>
+      <c r="B804" s="0">
+        <v>0.63355816598785875</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="0">
+        <v>133.83333333333334</v>
+      </c>
+      <c r="B805" s="0">
+        <v>0.63479872118631053</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="0">
+        <v>134</v>
+      </c>
+      <c r="B806" s="0">
+        <v>0.63569835891171089</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="0">
+        <v>134.16666666666666</v>
+      </c>
+      <c r="B807" s="0">
+        <v>0.63624692053707943</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="0">
+        <v>134.33333333333334</v>
+      </c>
+      <c r="B808" s="0">
+        <v>0.63782298635759471</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="0">
+        <v>134.5</v>
+      </c>
+      <c r="B809" s="0">
+        <v>0.63994197155790367</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="0">
+        <v>134.66666666666666</v>
+      </c>
+      <c r="B810" s="0">
+        <v>0.64119629249746435</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="0">
+        <v>134.83333333333334</v>
+      </c>
+      <c r="B811" s="0">
+        <v>0.64239106255552203</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="0">
+        <v>135</v>
+      </c>
+      <c r="B812" s="0">
+        <v>0.64183015930749221</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="0">
+        <v>135.16666666666666</v>
+      </c>
+      <c r="B813" s="0">
+        <v>0.64099629290971749</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="0">
+        <v>135.33333333333334</v>
+      </c>
+      <c r="B814" s="0">
+        <v>0.64116071849060941</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="0">
+        <v>135.5</v>
+      </c>
+      <c r="B815" s="0">
+        <v>0.64094266348332307</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="0">
+        <v>135.66666666666666</v>
+      </c>
+      <c r="B816" s="0">
+        <v>0.64111117697226239</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="0">
+        <v>135.83333333333334</v>
+      </c>
+      <c r="B817" s="0">
+        <v>0.64149770605273493</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="0">
+        <v>136</v>
+      </c>
+      <c r="B818" s="0">
+        <v>0.64138817383032787</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="0">
+        <v>136.16666666666666</v>
+      </c>
+      <c r="B819" s="0">
+        <v>0.64168472364210205</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="0">
+        <v>136.33333333333334</v>
+      </c>
+      <c r="B820" s="0">
+        <v>0.64354901537143872</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="B821" s="0">
+        <v>0.64561349472725238</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="0">
+        <v>136.66666666666666</v>
+      </c>
+      <c r="B822" s="0">
+        <v>0.64709644858213422</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="0">
+        <v>136.83333333333334</v>
+      </c>
+      <c r="B823" s="0">
+        <v>0.6482986395198822</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="0">
+        <v>137</v>
+      </c>
+      <c r="B824" s="0">
+        <v>0.64904284448189165</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="0">
+        <v>137.16666666666666</v>
+      </c>
+      <c r="B825" s="0">
+        <v>0.64915502979961748</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="0">
+        <v>137.33333333333334</v>
+      </c>
+      <c r="B826" s="0">
+        <v>0.64995673641970286</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="0">
+        <v>137.5</v>
+      </c>
+      <c r="B827" s="0">
+        <v>0.6503474505905289</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="0">
+        <v>137.66666666666666</v>
+      </c>
+      <c r="B828" s="0">
+        <v>0.65070018280442032</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="0">
+        <v>137.83333333333334</v>
+      </c>
+      <c r="B829" s="0">
+        <v>0.65074886118930031</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="0">
+        <v>138</v>
+      </c>
+      <c r="B830" s="0">
+        <v>0.64951985025399828</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="0">
+        <v>138.16666666666666</v>
+      </c>
+      <c r="B831" s="0">
+        <v>0.64421153376426299</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="0">
+        <v>138.33333333333334</v>
+      </c>
+      <c r="B832" s="0">
+        <v>0.64372188435802191</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="0">
+        <v>138.5</v>
+      </c>
+      <c r="B833" s="0">
+        <v>0.64578647721755278</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="0">
+        <v>138.66666666666666</v>
+      </c>
+      <c r="B834" s="0">
+        <v>0.64826657899604945</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="0">
+        <v>138.83333333333334</v>
+      </c>
+      <c r="B835" s="0">
+        <v>0.65054058492052269</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="0">
+        <v>139</v>
+      </c>
+      <c r="B836" s="0">
+        <v>0.6504154478393569</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="0">
+        <v>139.16666666666666</v>
+      </c>
+      <c r="B837" s="0">
+        <v>0.64638989766305988</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="0">
+        <v>139.33333333333334</v>
+      </c>
+      <c r="B838" s="0">
+        <v>0.64668994570695382</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="0">
+        <v>139.5</v>
+      </c>
+      <c r="B839" s="0">
+        <v>0.64788609007932208</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="0">
+        <v>139.66666666666666</v>
+      </c>
+      <c r="B840" s="0">
+        <v>0.64933614856422706</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="0">
+        <v>139.83333333333334</v>
+      </c>
+      <c r="B841" s="0">
+        <v>0.65045481704362296</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="0">
+        <v>140</v>
+      </c>
+      <c r="B842" s="0">
+        <v>0.64802713519597521</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="0">
+        <v>140.16666666666666</v>
+      </c>
+      <c r="B843" s="0">
+        <v>0.64250571468140627</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="0">
+        <v>140.33333333333334</v>
+      </c>
+      <c r="B844" s="0">
+        <v>0.64187410287435998</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="0">
+        <v>140.5</v>
+      </c>
+      <c r="B845" s="0">
+        <v>0.64418986126867239</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="0">
+        <v>140.66666666666666</v>
+      </c>
+      <c r="B846" s="0">
+        <v>0.64628617950493883</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="0">
+        <v>140.83333333333334</v>
+      </c>
+      <c r="B847" s="0">
+        <v>0.64878984632890846</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="0">
+        <v>141</v>
+      </c>
+      <c r="B848" s="0">
+        <v>0.64849624340950418</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="0">
+        <v>141.16666666666666</v>
+      </c>
+      <c r="B849" s="0">
+        <v>0.64477540018056068</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="0">
+        <v>141.33333333333334</v>
+      </c>
+      <c r="B850" s="0">
+        <v>0.64377490403121385</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="0">
+        <v>141.5</v>
+      </c>
+      <c r="B851" s="0">
+        <v>0.6457429496588083</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="0">
+        <v>141.66666666666666</v>
+      </c>
+      <c r="B852" s="0">
+        <v>0.64753760579777653</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="0">
+        <v>141.83333333333334</v>
+      </c>
+      <c r="B853" s="0">
+        <v>0.64869391364241547</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="0">
+        <v>142</v>
+      </c>
+      <c r="B854" s="0">
+        <v>0.64853498313032487</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="0">
+        <v>142.16666666666666</v>
+      </c>
+      <c r="B855" s="0">
+        <v>0.64757519214552206</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="0">
+        <v>142.33333333333334</v>
+      </c>
+      <c r="B856" s="0">
+        <v>0.64937033405398603</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="0">
+        <v>142.5</v>
+      </c>
+      <c r="B857" s="0">
+        <v>0.65094118164194981</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="0">
+        <v>142.66666666666666</v>
+      </c>
+      <c r="B858" s="0">
+        <v>0.65206446135312413</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="0">
+        <v>142.83333333333334</v>
+      </c>
+      <c r="B859" s="0">
+        <v>0.65316273441912776</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="0">
+        <v>143</v>
+      </c>
+      <c r="B860" s="0">
+        <v>0.65346100155716924</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="0">
+        <v>143.16666666666666</v>
+      </c>
+      <c r="B861" s="0">
+        <v>0.65378789348268407</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="0">
+        <v>143.33333333333334</v>
+      </c>
+      <c r="B862" s="0">
+        <v>0.6547169225985322</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="0">
+        <v>143.5</v>
+      </c>
+      <c r="B863" s="0">
+        <v>0.65615223184917726</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="0">
+        <v>143.66666666666666</v>
+      </c>
+      <c r="B864" s="0">
+        <v>0.6574232503354952</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="0">
+        <v>143.83333333333334</v>
+      </c>
+      <c r="B865" s="0">
+        <v>0.65818059196138434</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="0">
+        <v>144</v>
+      </c>
+      <c r="B866" s="0">
+        <v>0.65804430597236574</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="0">
+        <v>144.16666666666666</v>
+      </c>
+      <c r="B867" s="0">
+        <v>0.65803122253896451</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="0">
+        <v>144.33333333333334</v>
+      </c>
+      <c r="B868" s="0">
+        <v>0.65810809440433971</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="0">
+        <v>144.5</v>
+      </c>
+      <c r="B869" s="0">
+        <v>0.6578378930444817</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="0">
+        <v>144.66666666666666</v>
+      </c>
+      <c r="B870" s="0">
+        <v>0.65526299287608736</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="0">
+        <v>144.83333333333334</v>
+      </c>
+      <c r="B871" s="0">
+        <v>0.65606299358587916</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="0">
+        <v>145</v>
+      </c>
+      <c r="B872" s="0">
+        <v>0.65538251841580197</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="0">
+        <v>145.16666666666666</v>
+      </c>
+      <c r="B873" s="0">
+        <v>0.65381445893935808</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="0">
+        <v>145.33333333333334</v>
+      </c>
+      <c r="B874" s="0">
+        <v>0.65552664660555238</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="0">
+        <v>145.5</v>
+      </c>
+      <c r="B875" s="0">
+        <v>0.65675388176007599</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="0">
+        <v>145.66666666666666</v>
+      </c>
+      <c r="B876" s="0">
+        <v>0.65746636534702652</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="0">
+        <v>145.83333333333334</v>
+      </c>
+      <c r="B877" s="0">
+        <v>0.65838767157683087</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="0">
+        <v>146</v>
+      </c>
+      <c r="B878" s="0">
+        <v>0.6594264821381276</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="0">
+        <v>146.16666666666666</v>
+      </c>
+      <c r="B879" s="0">
+        <v>0.65896571118427116</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="0">
+        <v>146.33333333333334</v>
+      </c>
+      <c r="B880" s="0">
+        <v>0.65918852627141222</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="0">
+        <v>146.5</v>
+      </c>
+      <c r="B881" s="0">
+        <v>0.66021392393278977</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="0">
+        <v>146.66666666666666</v>
+      </c>
+      <c r="B882" s="0">
+        <v>0.66104364787609682</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="0">
+        <v>146.83333333333334</v>
+      </c>
+      <c r="B883" s="0">
+        <v>0.66207986842652022</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="0">
+        <v>147</v>
+      </c>
+      <c r="B884" s="0">
+        <v>0.66134628532542605</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="0">
+        <v>147.16666666666666</v>
+      </c>
+      <c r="B885" s="0">
+        <v>0.65616343616282236</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="0">
+        <v>147.33333333333334</v>
+      </c>
+      <c r="B886" s="0">
+        <v>0.65480337510993136</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="0">
+        <v>147.5</v>
+      </c>
+      <c r="B887" s="0">
+        <v>0.65708698746594907</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="0">
+        <v>147.66666666666666</v>
+      </c>
+      <c r="B888" s="0">
+        <v>0.6595261757569304</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="0">
+        <v>147.83333333333334</v>
+      </c>
+      <c r="B889" s="0">
+        <v>0.66162599749741313</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="0">
+        <v>148</v>
+      </c>
+      <c r="B890" s="0">
+        <v>0.66115143909877794</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="0">
+        <v>148.16666666666666</v>
+      </c>
+      <c r="B891" s="0">
+        <v>0.65725421435251086</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="0">
+        <v>148.33333333333334</v>
+      </c>
+      <c r="B892" s="0">
+        <v>0.6580370130187071</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="0">
+        <v>148.5</v>
+      </c>
+      <c r="B893" s="0">
+        <v>0.6600884389160514</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="0">
+        <v>148.66666666666666</v>
+      </c>
+      <c r="B894" s="0">
+        <v>0.6621226460623002</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="0">
+        <v>148.83333333333334</v>
+      </c>
+      <c r="B895" s="0">
+        <v>0.66345480164929094</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="0">
+        <v>149</v>
+      </c>
+      <c r="B896" s="0">
+        <v>0.66197014514645991</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="0">
+        <v>149.16666666666666</v>
+      </c>
+      <c r="B897" s="0">
+        <v>0.65557342198986868</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="0">
+        <v>149.33333333333334</v>
+      </c>
+      <c r="B898" s="0">
+        <v>0.65409762704224783</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="0">
+        <v>149.5</v>
+      </c>
+      <c r="B899" s="0">
+        <v>0.65462555939561973</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="0">
+        <v>149.66666666666666</v>
+      </c>
+      <c r="B900" s="0">
+        <v>0.65645821959304218</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="0">
+        <v>149.83333333333334</v>
+      </c>
+      <c r="B901" s="0">
+        <v>0.65843688527749</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="0">
+        <v>150</v>
+      </c>
+      <c r="B902" s="0">
+        <v>0.65692848851617869</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="0">
+        <v>150.16666666666666</v>
+      </c>
+      <c r="B903" s="0">
+        <v>0.65294812138722214</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="0">
+        <v>150.33333333333334</v>
+      </c>
+      <c r="B904" s="0">
+        <v>0.65233560372928612</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="0">
+        <v>150.5</v>
+      </c>
+      <c r="B905" s="0">
+        <v>0.65260597274442922</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="0">
+        <v>150.66666666666666</v>
+      </c>
+      <c r="B906" s="0">
+        <v>0.65281002973770519</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="0">
+        <v>150.83333333333334</v>
+      </c>
+      <c r="B907" s="0">
+        <v>0.65255886266689744</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="0">
+        <v>151</v>
+      </c>
+      <c r="B908" s="0">
+        <v>0.65152479616263759</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="0">
+        <v>151.16666666666666</v>
+      </c>
+      <c r="B909" s="0">
+        <v>0.65045403506172994</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="0">
+        <v>151.33333333333334</v>
+      </c>
+      <c r="B910" s="0">
+        <v>0.65047316905630725</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="0">
+        <v>151.5</v>
+      </c>
+      <c r="B911" s="0">
+        <v>0.65138987623128331</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="0">
+        <v>151.66666666666666</v>
+      </c>
+      <c r="B912" s="0">
+        <v>0.65293353677399579</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="0">
+        <v>151.83333333333334</v>
+      </c>
+      <c r="B913" s="0">
+        <v>0.65427627615279049</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="0">
+        <v>152</v>
+      </c>
+      <c r="B914" s="0">
+        <v>0.65534728122757546</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="0">
+        <v>152.16666666666666</v>
+      </c>
+      <c r="B915" s="0">
+        <v>0.65615128125085509</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="0">
+        <v>152.33333333333334</v>
+      </c>
+      <c r="B916" s="0">
+        <v>0.65680378634763337</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="0">
+        <v>152.5</v>
+      </c>
+      <c r="B917" s="0">
+        <v>0.65798748519885897</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="0">
+        <v>152.66666666666666</v>
+      </c>
+      <c r="B918" s="0">
+        <v>0.65879226517303136</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="0">
+        <v>152.83333333333334</v>
+      </c>
+      <c r="B919" s="0">
+        <v>0.65972419286319539</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="0">
+        <v>153</v>
+      </c>
+      <c r="B920" s="0">
+        <v>0.65956710478356229</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="0">
+        <v>153.16666666666666</v>
+      </c>
+      <c r="B921" s="0">
+        <v>0.65883826122684974</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="0">
+        <v>153.33333333333334</v>
+      </c>
+      <c r="B922" s="0">
+        <v>0.65927843231664551</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="0">
+        <v>153.5</v>
+      </c>
+      <c r="B923" s="0">
+        <v>0.66023910545316067</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="0">
+        <v>153.66666666666666</v>
+      </c>
+      <c r="B924" s="0">
+        <v>0.66110897127035795</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="0">
+        <v>153.83333333333334</v>
+      </c>
+      <c r="B925" s="0">
+        <v>0.66213558149741791</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="0">
+        <v>154</v>
+      </c>
+      <c r="B926" s="0">
+        <v>0.66252947336434587</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="0">
+        <v>154.16666666666666</v>
+      </c>
+      <c r="B927" s="0">
+        <v>0.66040624501835421</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="0">
+        <v>154.33333333333334</v>
+      </c>
+      <c r="B928" s="0">
+        <v>0.65868635284625487</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="0">
+        <v>154.5</v>
+      </c>
+      <c r="B929" s="0">
+        <v>0.65747392617677136</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="0">
+        <v>154.66666666666666</v>
+      </c>
+      <c r="B930" s="0">
+        <v>0.65731975798926812</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="0">
+        <v>154.83333333333334</v>
+      </c>
+      <c r="B931" s="0">
+        <v>0.6571369175375924</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="0">
+        <v>155</v>
+      </c>
+      <c r="B932" s="0">
+        <v>0.65616844309826983</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="0">
+        <v>155.16666666666666</v>
+      </c>
+      <c r="B933" s="0">
+        <v>0.65309242848252214</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="0">
+        <v>155.33333333333334</v>
+      </c>
+      <c r="B934" s="0">
+        <v>0.65175962005212429</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="0">
+        <v>155.5</v>
+      </c>
+      <c r="B935" s="0">
+        <v>0.65067157323832048</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="0">
+        <v>155.66666666666666</v>
+      </c>
+      <c r="B936" s="0">
+        <v>0.64947362540383846</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="0">
+        <v>155.83333333333334</v>
+      </c>
+      <c r="B937" s="0">
+        <v>0.64876569732361755</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="0">
+        <v>156</v>
+      </c>
+      <c r="B938" s="0">
+        <v>0.64718811372445884</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="0">
+        <v>156.16666666666666</v>
+      </c>
+      <c r="B939" s="0">
+        <v>0.64585028653368526</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="0">
+        <v>156.33333333333334</v>
+      </c>
+      <c r="B940" s="0">
+        <v>0.64499877821790541</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="0">
+        <v>156.5</v>
+      </c>
+      <c r="B941" s="0">
+        <v>0.64475680355212317</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="0">
+        <v>156.66666666666666</v>
+      </c>
+      <c r="B942" s="0">
+        <v>0.64698790124685734</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="0">
+        <v>156.83333333333334</v>
+      </c>
+      <c r="B943" s="0">
+        <v>0.64903753184854673</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="0">
+        <v>157</v>
+      </c>
+      <c r="B944" s="0">
+        <v>0.64795891413677731</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="0">
+        <v>157.16666666666666</v>
+      </c>
+      <c r="B945" s="0">
+        <v>0.64436114976548831</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="0">
+        <v>157.33333333333334</v>
+      </c>
+      <c r="B946" s="0">
+        <v>0.64381283546148627</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="0">
+        <v>157.5</v>
+      </c>
+      <c r="B947" s="0">
+        <v>0.64488318533774858</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="0">
+        <v>157.66666666666666</v>
+      </c>
+      <c r="B948" s="0">
+        <v>0.64656742471956363</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="0">
+        <v>157.83333333333334</v>
+      </c>
+      <c r="B949" s="0">
+        <v>0.64793629986834467</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="0">
+        <v>158</v>
+      </c>
+      <c r="B950" s="0">
+        <v>0.64801589487469435</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="0">
+        <v>158.16666666666666</v>
+      </c>
+      <c r="B951" s="0">
+        <v>0.64719976011248814</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="0">
+        <v>158.33333333333334</v>
+      </c>
+      <c r="B952" s="0">
+        <v>0.64675796092859705</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="0">
+        <v>158.5</v>
+      </c>
+      <c r="B953" s="0">
+        <v>0.6468711094363061</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="0">
+        <v>158.66666666666666</v>
+      </c>
+      <c r="B954" s="0">
+        <v>0.6470672697281592</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="0">
+        <v>158.83333333333334</v>
+      </c>
+      <c r="B955" s="0">
+        <v>0.6488447218989617</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="0">
+        <v>159</v>
+      </c>
+      <c r="B956" s="0">
+        <v>0.64858013811294002</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="0">
+        <v>159.16666666666666</v>
+      </c>
+      <c r="B957" s="0">
+        <v>0.64488164868021836</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="0">
+        <v>159.33333333333334</v>
+      </c>
+      <c r="B958" s="0">
+        <v>0.64576075810232392</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="0">
+        <v>159.5</v>
+      </c>
+      <c r="B959" s="0">
+        <v>0.64785330745254377</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="0">
+        <v>159.66666666666666</v>
+      </c>
+      <c r="B960" s="0">
+        <v>0.64924898404429143</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="0">
+        <v>159.83333333333334</v>
+      </c>
+      <c r="B961" s="0">
+        <v>0.6504727412538488</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="0">
+        <v>160</v>
+      </c>
+      <c r="B962" s="0">
+        <v>0.65022548042618089</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="0">
+        <v>160.16666666666666</v>
+      </c>
+      <c r="B963" s="0">
+        <v>0.64991070537634088</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="0">
+        <v>160.33333333333334</v>
+      </c>
+      <c r="B964" s="0">
+        <v>0.65049814320449995</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="0">
+        <v>160.5</v>
+      </c>
+      <c r="B965" s="0">
+        <v>0.65143707551409369</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="0">
+        <v>160.66666666666666</v>
+      </c>
+      <c r="B966" s="0">
+        <v>0.65232569448872479</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="0">
+        <v>160.83333333333334</v>
+      </c>
+      <c r="B967" s="0">
+        <v>0.65329305044369457</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="0">
+        <v>161</v>
+      </c>
+      <c r="B968" s="0">
+        <v>0.65369611399203786</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="0">
+        <v>161.16666666666666</v>
+      </c>
+      <c r="B969" s="0">
+        <v>0.65499722022042717</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="0">
+        <v>161.33333333333334</v>
+      </c>
+      <c r="B970" s="0">
+        <v>0.65709959457873801</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="0">
+        <v>161.5</v>
+      </c>
+      <c r="B971" s="0">
+        <v>0.65823866504908057</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="0">
+        <v>161.66666666666666</v>
+      </c>
+      <c r="B972" s="0">
+        <v>0.65924022285897221</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="0">
+        <v>161.83333333333334</v>
+      </c>
+      <c r="B973" s="0">
+        <v>0.66081824669906319</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="0">
+        <v>162</v>
+      </c>
+      <c r="B974" s="0">
+        <v>0.66074715696554387</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="0">
+        <v>162.16666666666666</v>
+      </c>
+      <c r="B975" s="0">
+        <v>0.65849782149259639</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="0">
+        <v>162.33333333333334</v>
+      </c>
+      <c r="B976" s="0">
+        <v>0.65932654929825341</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="0">
+        <v>162.5</v>
+      </c>
+      <c r="B977" s="0">
+        <v>0.66095807788839211</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="0">
+        <v>162.66666666666666</v>
+      </c>
+      <c r="B978" s="0">
+        <v>0.66331751147781015</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="0">
+        <v>162.83333333333334</v>
+      </c>
+      <c r="B979" s="0">
+        <v>0.66524539803352412</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="0">
+        <v>163</v>
+      </c>
+      <c r="B980" s="0">
+        <v>0.66461280519147103</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="0">
+        <v>163.16666666666666</v>
+      </c>
+      <c r="B981" s="0">
+        <v>0.65910138428896936</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="0">
+        <v>163.33333333333334</v>
+      </c>
+      <c r="B982" s="0">
+        <v>0.65950306480945997</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="0">
+        <v>163.5</v>
+      </c>
+      <c r="B983" s="0">
+        <v>0.66060006331176924</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="0">
+        <v>163.66666666666666</v>
+      </c>
+      <c r="B984" s="0">
+        <v>0.66273559505780388</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="0">
+        <v>163.83333333333334</v>
+      </c>
+      <c r="B985" s="0">
+        <v>0.66485028658742518</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="0">
+        <v>164</v>
+      </c>
+      <c r="B986" s="0">
+        <v>0.66484636714225387</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="0">
+        <v>164.16666666666666</v>
+      </c>
+      <c r="B987" s="0">
+        <v>0.66108290022155769</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="0">
+        <v>164.33333333333334</v>
+      </c>
+      <c r="B988" s="0">
+        <v>0.65995831574818631</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="0">
+        <v>164.5</v>
+      </c>
+      <c r="B989" s="0">
+        <v>0.66007758499578495</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="0">
+        <v>164.66666666666666</v>
+      </c>
+      <c r="B990" s="0">
+        <v>0.66002452676296552</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="0">
+        <v>164.83333333333334</v>
+      </c>
+      <c r="B991" s="0">
+        <v>0.66034819609645468</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="0">
+        <v>165</v>
+      </c>
+      <c r="B992" s="0">
+        <v>0.65939742093040998</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="0">
+        <v>165.16666666666666</v>
+      </c>
+      <c r="B993" s="0">
+        <v>0.65723527655947567</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="0">
+        <v>165.33333333333334</v>
+      </c>
+      <c r="B994" s="0">
+        <v>0.65752941442550283</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="0">
+        <v>165.5</v>
+      </c>
+      <c r="B995" s="0">
+        <v>0.658843108486591</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="0">
+        <v>165.66666666666666</v>
+      </c>
+      <c r="B996" s="0">
+        <v>0.66062399154438622</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="0">
+        <v>165.83333333333334</v>
+      </c>
+      <c r="B997" s="0">
+        <v>0.66214503598822261</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="0">
+        <v>166</v>
+      </c>
+      <c r="B998" s="0">
+        <v>0.66147110067420067</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="0">
+        <v>166.16666666666666</v>
+      </c>
+      <c r="B999" s="0">
+        <v>0.65878982431005817</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="0">
+        <v>166.33333333333334</v>
+      </c>
+      <c r="B1000" s="0">
+        <v>0.65885948457201127</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="0">
+        <v>166.5</v>
+      </c>
+      <c r="B1001" s="0">
+        <v>0.65886693840499411</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="0">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="B1002" s="0">
+        <v>0.65879541106846284</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="0">
+        <v>166.83333333333334</v>
+      </c>
+      <c r="B1003" s="0">
+        <v>0.65871234626001929</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="0">
+        <v>167</v>
+      </c>
+      <c r="B1004" s="0">
+        <v>0.65777113758862849</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="0">
+        <v>167.16666666666666</v>
+      </c>
+      <c r="B1005" s="0">
+        <v>0.6569825838027703</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="0">
+        <v>167.33333333333334</v>
+      </c>
+      <c r="B1006" s="0">
+        <v>0.65696306276554428</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="0">
+        <v>167.5</v>
+      </c>
+      <c r="B1007" s="0">
+        <v>0.65708494139705365</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="0">
+        <v>167.66666666666666</v>
+      </c>
+      <c r="B1008" s="0">
+        <v>0.65753048363731159</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="0">
+        <v>167.83333333333334</v>
+      </c>
+      <c r="B1009" s="0">
+        <v>0.65785760895904422</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1010" s="0">
+        <v>0.65678918565248767</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="0">
+        <v>168.16666666666666</v>
+      </c>
+      <c r="B1011" s="0">
+        <v>0.6545076834960859</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="0">
+        <v>168.33333333333334</v>
+      </c>
+      <c r="B1012" s="0">
+        <v>0.6544858214281496</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="0">
+        <v>168.5</v>
+      </c>
+      <c r="B1013" s="0">
+        <v>0.65624047310327027</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="0">
+        <v>168.66666666666666</v>
+      </c>
+      <c r="B1014" s="0">
+        <v>0.65708799559256259</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="0">
+        <v>168.83333333333334</v>
+      </c>
+      <c r="B1015" s="0">
+        <v>0.65746429105603066</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="0">
+        <v>169</v>
+      </c>
+      <c r="B1016" s="0">
+        <v>0.65778340846084382</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="0">
+        <v>169.16666666666666</v>
+      </c>
+      <c r="B1017" s="0">
+        <v>0.65808579331006789</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="0">
+        <v>169.33333333333334</v>
+      </c>
+      <c r="B1018" s="0">
+        <v>0.65838267920739568</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="0">
+        <v>169.5</v>
+      </c>
+      <c r="B1019" s="0">
+        <v>0.65867969881320587</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="0">
+        <v>169.66666666666666</v>
+      </c>
+      <c r="B1020" s="0">
+        <v>0.65898460762784528</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="0">
+        <v>169.83333333333334</v>
+      </c>
+      <c r="B1021" s="0">
+        <v>0.65929554678709623</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="0">
+        <v>170</v>
+      </c>
+      <c r="B1022" s="0">
+        <v>0.65961713743341843</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="0">
+        <v>170.16666666666666</v>
+      </c>
+      <c r="B1023" s="0">
+        <v>0.65995090319235428</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="0">
+        <v>170.33333333333334</v>
+      </c>
+      <c r="B1024" s="0">
+        <v>0.66029323237850013</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="0">
+        <v>170.5</v>
+      </c>
+      <c r="B1025" s="0">
+        <v>0.66064543308425061</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="0">
+        <v>170.66666666666666</v>
+      </c>
+      <c r="B1026" s="0">
+        <v>0.66100853358806555</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="0">
+        <v>170.83333333333334</v>
+      </c>
+      <c r="B1027" s="0">
+        <v>0.66138315265680803</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="0">
+        <v>171</v>
+      </c>
+      <c r="B1028" s="0">
+        <v>0.66176649272491028</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="0">
+        <v>171.16666666666666</v>
+      </c>
+      <c r="B1029" s="0">
+        <v>0.6621593668084137</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="0">
+        <v>171.33333333333334</v>
+      </c>
+      <c r="B1030" s="0">
+        <v>0.66256294793423232</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="0">
+        <v>171.5</v>
+      </c>
+      <c r="B1031" s="0">
+        <v>0.66297744571486927</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="0">
+        <v>171.66666666666666</v>
+      </c>
+      <c r="B1032" s="0">
+        <v>0.66340306560639806</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="0">
+        <v>171.83333333333334</v>
+      </c>
+      <c r="B1033" s="0">
+        <v>0.66384032718911501</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1034" s="0">
+        <v>0.66428770619450128</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="0">
+        <v>172.16666666666666</v>
+      </c>
+      <c r="B1035" s="0">
+        <v>0.66476257544443573</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="0">
+        <v>172.33333333333334</v>
+      </c>
+      <c r="B1036" s="0">
+        <v>0.66583118069528358</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="0">
+        <v>172.5</v>
+      </c>
+      <c r="B1037" s="0">
+        <v>0.66762594534519337</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="0">
+        <v>172.66666666666666</v>
+      </c>
+      <c r="B1038" s="0">
+        <v>0.66893513922187076</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="0">
+        <v>172.83333333333334</v>
+      </c>
+      <c r="B1039" s="0">
+        <v>0.66926023590813621</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="0">
+        <v>173</v>
+      </c>
+      <c r="B1040" s="0">
+        <v>0.66930040805874547</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="0">
+        <v>173.16666666666666</v>
+      </c>
+      <c r="B1041" s="0">
+        <v>0.66917722397910617</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="0">
+        <v>173.33333333333334</v>
+      </c>
+      <c r="B1042" s="0">
+        <v>0.6698159111323565</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="0">
+        <v>173.5</v>
+      </c>
+      <c r="B1043" s="0">
+        <v>0.6701765382892767</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="0">
+        <v>173.66666666666666</v>
+      </c>
+      <c r="B1044" s="0">
+        <v>0.67063279418671296</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="0">
+        <v>173.83333333333334</v>
+      </c>
+      <c r="B1045" s="0">
+        <v>0.6713719227950351</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="0">
+        <v>174</v>
+      </c>
+      <c r="B1046" s="0">
+        <v>0.6714834216644523</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="0">
+        <v>174.16666666666666</v>
+      </c>
+      <c r="B1047" s="0">
+        <v>0.67067724616722435</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="0">
+        <v>174.33333333333334</v>
+      </c>
+      <c r="B1048" s="0">
+        <v>0.67168046254469038</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="0">
+        <v>174.5</v>
+      </c>
+      <c r="B1049" s="0">
+        <v>0.67275327945405672</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="0">
+        <v>174.66666666666666</v>
+      </c>
+      <c r="B1050" s="0">
+        <v>0.67367284254240223</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="0">
+        <v>174.83333333333334</v>
+      </c>
+      <c r="B1051" s="0">
+        <v>0.67451147075899187</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="0">
+        <v>175</v>
+      </c>
+      <c r="B1052" s="0">
+        <v>0.67490275897747276</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="0">
+        <v>175.16666666666666</v>
+      </c>
+      <c r="B1053" s="0">
+        <v>0.6743012713094364</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="0">
+        <v>175.33333333333334</v>
+      </c>
+      <c r="B1054" s="0">
+        <v>0.67466633662676789</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="0">
+        <v>175.5</v>
+      </c>
+      <c r="B1055" s="0">
+        <v>0.67519498116846888</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="0">
+        <v>175.66666666666666</v>
+      </c>
+      <c r="B1056" s="0">
+        <v>0.67549939444690099</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="0">
+        <v>175.83333333333334</v>
+      </c>
+      <c r="B1057" s="0">
+        <v>0.67570148720688994</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1058" s="0">
+        <v>0.67429372226359141</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="0">
+        <v>176.16666666666666</v>
+      </c>
+      <c r="B1059" s="0">
+        <v>0.67052053598661687</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="0">
+        <v>176.33333333333334</v>
+      </c>
+      <c r="B1060" s="0">
+        <v>0.67121647468550527</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="0">
+        <v>176.5</v>
+      </c>
+      <c r="B1061" s="0">
+        <v>0.67310833771044165</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="0">
+        <v>176.66666666666666</v>
+      </c>
+      <c r="B1062" s="0">
+        <v>0.67491693738768965</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="0">
+        <v>176.83333333333334</v>
+      </c>
+      <c r="B1063" s="0">
+        <v>0.67609069282440471</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="0">
+        <v>177</v>
+      </c>
+      <c r="B1064" s="0">
+        <v>0.67670113309381241</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="0">
+        <v>177.16666666666666</v>
+      </c>
+      <c r="B1065" s="0">
+        <v>0.67633439125129324</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="0">
+        <v>177.33333333333334</v>
+      </c>
+      <c r="B1066" s="0">
+        <v>0.67725271461098024</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="0">
+        <v>177.5</v>
+      </c>
+      <c r="B1067" s="0">
+        <v>0.67817978736132345</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="0">
+        <v>177.66666666666666</v>
+      </c>
+      <c r="B1068" s="0">
+        <v>0.6789085380201354</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="0">
+        <v>177.83333333333334</v>
+      </c>
+      <c r="B1069" s="0">
+        <v>0.67937445870636337</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="0">
+        <v>178</v>
+      </c>
+      <c r="B1070" s="0">
+        <v>0.67952908850552518</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="0">
+        <v>178.16666666666666</v>
+      </c>
+      <c r="B1071" s="0">
+        <v>0.67958970235753147</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="0">
+        <v>178.33333333333334</v>
+      </c>
+      <c r="B1072" s="0">
+        <v>0.68001509068593791</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="0">
+        <v>178.5</v>
+      </c>
+      <c r="B1073" s="0">
+        <v>0.6808999564299002</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="0">
+        <v>178.66666666666666</v>
+      </c>
+      <c r="B1074" s="0">
+        <v>0.68207054098056752</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="0">
+        <v>178.83333333333334</v>
+      </c>
+      <c r="B1075" s="0">
+        <v>0.68339952418225591</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="0">
+        <v>179</v>
+      </c>
+      <c r="B1076" s="0">
+        <v>0.68205873210594725</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="0">
+        <v>179.16666666666666</v>
+      </c>
+      <c r="B1077" s="0">
+        <v>0.67895751960368755</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="0">
+        <v>179.33333333333334</v>
+      </c>
+      <c r="B1078" s="0">
+        <v>0.68080237962404699</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="0">
+        <v>179.5</v>
+      </c>
+      <c r="B1079" s="0">
+        <v>0.68214792287928916</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="0">
+        <v>179.66666666666666</v>
+      </c>
+      <c r="B1080" s="0">
+        <v>0.68308977914066649</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="0">
+        <v>179.83333333333334</v>
+      </c>
+      <c r="B1081" s="0">
+        <v>0.68387970371821016</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1082" s="0">
+        <v>0.68325447979701726</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="0">
+        <v>180.16666666666666</v>
+      </c>
+      <c r="B1083" s="0">
+        <v>0.67794618136973495</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="0">
+        <v>180.33333333333334</v>
+      </c>
+      <c r="B1084" s="0">
+        <v>0.67711131936327651</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="0">
+        <v>180.5</v>
+      </c>
+      <c r="B1085" s="0">
+        <v>0.67849192926484025</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="0">
+        <v>180.66666666666666</v>
+      </c>
+      <c r="B1086" s="0">
+        <v>0.67924570551700558</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="0">
+        <v>180.83333333333334</v>
+      </c>
+      <c r="B1087" s="0">
+        <v>0.67599700585707312</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="0">
+        <v>181</v>
+      </c>
+      <c r="B1088" s="0">
+        <v>0.67145210085350648</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="0">
+        <v>181.16666666666666</v>
+      </c>
+      <c r="B1089" s="0">
+        <v>0.66729115360592317</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="0">
+        <v>181.33333333333334</v>
+      </c>
+      <c r="B1090" s="0">
+        <v>0.66575372121517307</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="0">
+        <v>181.5</v>
+      </c>
+      <c r="B1091" s="0">
+        <v>0.66531784584290998</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="0">
+        <v>181.66666666666666</v>
+      </c>
+      <c r="B1092" s="0">
+        <v>0.66519246586687608</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="0">
+        <v>181.83333333333334</v>
+      </c>
+      <c r="B1093" s="0">
+        <v>0.66668375627853027</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="0">
+        <v>182</v>
+      </c>
+      <c r="B1094" s="0">
+        <v>0.66560562982004579</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="0">
+        <v>182.16666666666666</v>
+      </c>
+      <c r="B1095" s="0">
+        <v>0.66020211185855515</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="0">
+        <v>182.33333333333334</v>
+      </c>
+      <c r="B1096" s="0">
+        <v>0.65910683541147275</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="0">
+        <v>182.5</v>
+      </c>
+      <c r="B1097" s="0">
+        <v>0.65917182735173596</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="0">
+        <v>182.66666666666666</v>
+      </c>
+      <c r="B1098" s="0">
+        <v>0.65997375915760592</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="0">
+        <v>182.83333333333334</v>
+      </c>
+      <c r="B1099" s="0">
+        <v>0.66133898440443228</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="0">
+        <v>183</v>
+      </c>
+      <c r="B1100" s="0">
+        <v>0.66061192993232809</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="0">
+        <v>183.16666666666666</v>
+      </c>
+      <c r="B1101" s="0">
+        <v>0.65584150676116393</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="0">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="B1102" s="0">
+        <v>0.65525386682091724</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="0">
+        <v>183.5</v>
+      </c>
+      <c r="B1103" s="0">
+        <v>0.65503340415190392</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="0">
+        <v>183.66666666666666</v>
+      </c>
+      <c r="B1104" s="0">
+        <v>0.65411862721441649</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="0">
+        <v>183.83333333333334</v>
+      </c>
+      <c r="B1105" s="0">
+        <v>0.6538590875267869</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="0">
+        <v>184</v>
+      </c>
+      <c r="B1106" s="0">
+        <v>0.65349799123422736</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="0">
+        <v>184.16666666666666</v>
+      </c>
+      <c r="B1107" s="0">
+        <v>0.6525892831622695</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="0">
+        <v>184.33333333333334</v>
+      </c>
+      <c r="B1108" s="0">
+        <v>0.65247287745465754</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="0">
+        <v>184.5</v>
+      </c>
+      <c r="B1109" s="0">
+        <v>0.6529865404023828</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="0">
+        <v>184.66666666666666</v>
+      </c>
+      <c r="B1110" s="0">
+        <v>0.65333318708903143</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="0">
+        <v>184.83333333333334</v>
+      </c>
+      <c r="B1111" s="0">
+        <v>0.65458627202079056</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="0">
+        <v>185</v>
+      </c>
+      <c r="B1112" s="0">
+        <v>0.65635105210964739</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="0">
+        <v>185.16666666666666</v>
+      </c>
+      <c r="B1113" s="0">
+        <v>0.6572799200956132</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="0">
+        <v>185.33333333333334</v>
+      </c>
+      <c r="B1114" s="0">
+        <v>0.65940750669702664</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="0">
+        <v>185.5</v>
+      </c>
+      <c r="B1115" s="0">
+        <v>0.6615354020135813</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="0">
+        <v>185.66666666666666</v>
+      </c>
+      <c r="B1116" s="0">
+        <v>0.66321466190236089</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="0">
+        <v>185.83333333333334</v>
+      </c>
+      <c r="B1117" s="0">
+        <v>0.66455359550012949</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="0">
+        <v>186</v>
+      </c>
+      <c r="B1118" s="0">
+        <v>0.6650814413532079</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="0">
+        <v>186.16666666666666</v>
+      </c>
+      <c r="B1119" s="0">
+        <v>0.66299803183076256</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="0">
+        <v>186.33333333333334</v>
+      </c>
+      <c r="B1120" s="0">
+        <v>0.66475476604971051</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="0">
+        <v>186.5</v>
+      </c>
+      <c r="B1121" s="0">
+        <v>0.66752116743729029</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="0">
+        <v>186.66666666666666</v>
+      </c>
+      <c r="B1122" s="0">
+        <v>0.67000089171180854</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="0">
+        <v>186.83333333333334</v>
+      </c>
+      <c r="B1123" s="0">
+        <v>0.67106697800624238</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="0">
+        <v>187</v>
+      </c>
+      <c r="B1124" s="0">
+        <v>0.67151096618551975</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="0">
+        <v>187.16666666666666</v>
+      </c>
+      <c r="B1125" s="0">
+        <v>0.67098635703836207</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="0">
+        <v>187.33333333333334</v>
+      </c>
+      <c r="B1126" s="0">
+        <v>0.67265580356386234</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="0">
+        <v>187.5</v>
+      </c>
+      <c r="B1127" s="0">
+        <v>0.67427178692472567</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="0">
+        <v>187.66666666666666</v>
+      </c>
+      <c r="B1128" s="0">
+        <v>0.67522995000342856</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="0">
+        <v>187.83333333333334</v>
+      </c>
+      <c r="B1129" s="0">
+        <v>0.67612687751394018</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="0">
+        <v>188</v>
+      </c>
+      <c r="B1130" s="0">
+        <v>0.67589633236693014</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="0">
+        <v>188.16666666666666</v>
+      </c>
+      <c r="B1131" s="0">
+        <v>0.67211800768682173</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="0">
+        <v>188.33333333333334</v>
+      </c>
+      <c r="B1132" s="0">
+        <v>0.67215142705138164</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="0">
+        <v>188.5</v>
+      </c>
+      <c r="B1133" s="0">
+        <v>0.67434125774954334</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="0">
+        <v>188.66666666666666</v>
+      </c>
+      <c r="B1134" s="0">
+        <v>0.67603895518938428</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="0">
+        <v>188.83333333333334</v>
+      </c>
+      <c r="B1135" s="0">
+        <v>0.67739316483814294</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="0">
+        <v>189</v>
+      </c>
+      <c r="B1136" s="0">
+        <v>0.6780663894666441</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="0">
+        <v>189.16666666666666</v>
+      </c>
+      <c r="B1137" s="0">
+        <v>0.67673507945631939</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="0">
+        <v>189.33333333333334</v>
+      </c>
+      <c r="B1138" s="0">
+        <v>0.67162375876890979</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="0">
+        <v>189.5</v>
+      </c>
+      <c r="B1139" s="0">
+        <v>0.66943393952431829</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="0">
+        <v>189.66666666666666</v>
+      </c>
+      <c r="B1140" s="0">
+        <v>0.66850081442246057</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="0">
+        <v>189.83333333333334</v>
+      </c>
+      <c r="B1141" s="0">
+        <v>0.6662325138808648</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="0">
+        <v>190</v>
+      </c>
+      <c r="B1142" s="0">
+        <v>0.66225572434036961</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="0">
+        <v>190.16666666666666</v>
+      </c>
+      <c r="B1143" s="0">
+        <v>0.65772502724057591</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="0">
+        <v>190.33333333333334</v>
+      </c>
+      <c r="B1144" s="0">
+        <v>0.65610034268780426</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="0">
+        <v>190.5</v>
+      </c>
+      <c r="B1145" s="0">
+        <v>0.65603300775294227</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="0">
+        <v>190.66666666666666</v>
+      </c>
+      <c r="B1146" s="0">
+        <v>0.65646209624697405</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="0">
+        <v>190.83333333333334</v>
+      </c>
+      <c r="B1147" s="0">
+        <v>0.65705931968567477</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="0">
+        <v>191</v>
+      </c>
+      <c r="B1148" s="0">
+        <v>0.65520133844427531</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="0">
+        <v>191.16666666666666</v>
+      </c>
+      <c r="B1149" s="0">
+        <v>0.65245873124901299</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="0">
+        <v>191.33333333333334</v>
+      </c>
+      <c r="B1150" s="0">
+        <v>0.65257075238150009</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="0">
+        <v>191.5</v>
+      </c>
+      <c r="B1151" s="0">
+        <v>0.6536734941518586</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="0">
+        <v>191.66666666666666</v>
+      </c>
+      <c r="B1152" s="0">
+        <v>0.65565832681871994</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="0">
+        <v>191.83333333333334</v>
+      </c>
+      <c r="B1153" s="0">
+        <v>0.65774170716207414</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="0">
+        <v>192</v>
+      </c>
+      <c r="B1154" s="0">
+        <v>0.65829269720693484</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>